--- a/Results_data_all.xlsx
+++ b/Results_data_all.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5304" uniqueCount="1907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5321" uniqueCount="1924">
   <si>
     <t>V1</t>
   </si>
@@ -5747,6 +5747,57 @@
   </si>
   <si>
     <t>Soil 1999-105_MAD</t>
+  </si>
+  <si>
+    <t>SRS1311</t>
+  </si>
+  <si>
+    <t>SRS1312</t>
+  </si>
+  <si>
+    <t>SRS1313</t>
+  </si>
+  <si>
+    <t>SRS1314</t>
+  </si>
+  <si>
+    <t>SRS1315</t>
+  </si>
+  <si>
+    <t>SRS1301</t>
+  </si>
+  <si>
+    <t>SRS1302</t>
+  </si>
+  <si>
+    <t>SRS1303</t>
+  </si>
+  <si>
+    <t>SRS1304</t>
+  </si>
+  <si>
+    <t>SRS1305</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Sand_Mean</t>
+  </si>
+  <si>
+    <t>Sand_MAD</t>
+  </si>
+  <si>
+    <t>Silt_Mean</t>
+  </si>
+  <si>
+    <t>Silt_MAD</t>
+  </si>
+  <si>
+    <t>Clay_Mean</t>
+  </si>
+  <si>
+    <t>Clay_MAD</t>
   </si>
 </sst>
 </file>
@@ -45340,14 +45391,276 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B2">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>5.3</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>14.7</v>
+      </c>
+      <c r="G2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B3">
+        <v>45.7</v>
+      </c>
+      <c r="C3">
+        <v>5.3</v>
+      </c>
+      <c r="D3">
+        <v>44.7</v>
+      </c>
+      <c r="E3">
+        <v>4.7</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B4">
+        <v>92.9</v>
+      </c>
+      <c r="C4">
+        <v>1.8</v>
+      </c>
+      <c r="D4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.83</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>3.6</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>3.2</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B6">
+        <v>9.58</v>
+      </c>
+      <c r="C6">
+        <v>2.92</v>
+      </c>
+      <c r="D6">
+        <v>66</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B7">
+        <v>94.3</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+      <c r="D7">
+        <v>2.59</v>
+      </c>
+      <c r="E7">
+        <v>0.59</v>
+      </c>
+      <c r="F7">
+        <v>3.5</v>
+      </c>
+      <c r="G7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B8">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1.9</v>
+      </c>
+      <c r="F8">
+        <v>10.7</v>
+      </c>
+      <c r="G8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B9">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="C9">
+        <v>3.5</v>
+      </c>
+      <c r="D9">
+        <v>22.5</v>
+      </c>
+      <c r="E9">
+        <v>1.7</v>
+      </c>
+      <c r="F9">
+        <v>6.3</v>
+      </c>
+      <c r="G9">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B10">
+        <v>44.7</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>31.2</v>
+      </c>
+      <c r="E10">
+        <v>4.7</v>
+      </c>
+      <c r="F10">
+        <v>24.6</v>
+      </c>
+      <c r="G10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B11">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>2.1</v>
+      </c>
+      <c r="F11">
+        <v>9.83</v>
+      </c>
+      <c r="G11">
+        <v>1.07</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Results_data_all.xlsx
+++ b/Results_data_all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Results_data_all" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5321" uniqueCount="1924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5382" uniqueCount="1985">
   <si>
     <t>V1</t>
   </si>
@@ -5798,6 +5798,189 @@
   </si>
   <si>
     <t>Clay_MAD</t>
+  </si>
+  <si>
+    <t>SRSSRS1306</t>
+  </si>
+  <si>
+    <t>SRSSRS1307</t>
+  </si>
+  <si>
+    <t>SRSSRS1308</t>
+  </si>
+  <si>
+    <t>SRSSRS1309</t>
+  </si>
+  <si>
+    <t>SRSSRS1310</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRS1401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRS1402</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRS1403</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRS1404</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRS1405</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1411</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1412</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1413</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1414</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1415</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1501</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1502</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1503</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1504</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1505</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1506</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1507</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1508</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1509</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1510</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1511</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1512</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1513</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1514</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1515</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1601</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1602</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1603</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1604</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1605</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1606</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1607</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1608</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1609</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SRSSRS1610</t>
+  </si>
+  <si>
+    <t>SRS1611</t>
+  </si>
+  <si>
+    <t>SRS1613</t>
+  </si>
+  <si>
+    <t>SRS1614</t>
+  </si>
+  <si>
+    <t>SRS1615</t>
+  </si>
+  <si>
+    <t>SSR1612</t>
+  </si>
+  <si>
+    <t>SRS1701</t>
+  </si>
+  <si>
+    <t>SRS1702</t>
+  </si>
+  <si>
+    <t>SRS1703</t>
+  </si>
+  <si>
+    <t>SRS1704</t>
+  </si>
+  <si>
+    <t>SRS1705</t>
+  </si>
+  <si>
+    <t>SRS1706</t>
+  </si>
+  <si>
+    <t>SRS1707</t>
+  </si>
+  <si>
+    <t>SRS1708</t>
+  </si>
+  <si>
+    <t>SRS1709</t>
+  </si>
+  <si>
+    <t>SRS1710</t>
+  </si>
+  <si>
+    <t>SRS1711</t>
+  </si>
+  <si>
+    <t>SRS1712</t>
+  </si>
+  <si>
+    <t>SRS1713</t>
+  </si>
+  <si>
+    <t>SRS1714</t>
+  </si>
+  <si>
+    <t>SRS1715</t>
   </si>
 </sst>
 </file>
@@ -5807,7 +5990,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -5836,6 +6019,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5878,7 +6067,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2249">
+  <cellXfs count="2250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
@@ -12608,6 +12797,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12896,7 +13088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M658"/>
   <sheetViews>
-    <sheetView topLeftCell="B651" workbookViewId="0">
+    <sheetView topLeftCell="B627" workbookViewId="0">
       <selection activeCell="F161" sqref="F161:I658"/>
     </sheetView>
   </sheetViews>
@@ -30974,7 +31166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="D111" sqref="A3:D111"/>
     </sheetView>
   </sheetViews>
@@ -32546,7 +32738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -45391,15 +45583,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I66" sqref="I66:I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -45407,7 +45599,7 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1917</v>
       </c>
@@ -45429,8 +45621,11 @@
       <c r="G1" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1907</v>
       </c>
@@ -45452,8 +45647,12 @@
       <c r="G2">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>B2+D2+F2</f>
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1908</v>
       </c>
@@ -45475,8 +45674,12 @@
       <c r="G3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I67" si="0">B3+D3+F3</f>
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1909</v>
       </c>
@@ -45498,8 +45701,12 @@
       <c r="G4">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1910</v>
       </c>
@@ -45521,8 +45728,12 @@
       <c r="G5">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1911</v>
       </c>
@@ -45544,8 +45755,12 @@
       <c r="G6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>98.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1912</v>
       </c>
@@ -45567,8 +45782,12 @@
       <c r="G7">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>100.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1913</v>
       </c>
@@ -45590,8 +45809,12 @@
       <c r="G8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1914</v>
       </c>
@@ -45613,8 +45836,12 @@
       <c r="G9">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1915</v>
       </c>
@@ -45636,8 +45863,12 @@
       <c r="G10">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1916</v>
       </c>
@@ -45659,9 +45890,1634 @@
       <c r="G11">
         <v>1.07</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>102.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B12">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D12">
+        <v>24.5</v>
+      </c>
+      <c r="E12">
+        <v>3.2</v>
+      </c>
+      <c r="F12">
+        <v>5.67</v>
+      </c>
+      <c r="G12">
+        <v>2.83</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>97.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B13">
+        <v>66.7</v>
+      </c>
+      <c r="C13">
+        <v>1.7</v>
+      </c>
+      <c r="D13">
+        <v>24.8</v>
+      </c>
+      <c r="E13">
+        <v>2.7</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>2.33</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B14">
+        <v>25.3</v>
+      </c>
+      <c r="C14">
+        <v>2.7</v>
+      </c>
+      <c r="D14">
+        <v>39.5</v>
+      </c>
+      <c r="E14">
+        <v>1.7</v>
+      </c>
+      <c r="F14">
+        <v>36</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B15">
+        <v>84.7</v>
+      </c>
+      <c r="C15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D15">
+        <v>6.4</v>
+      </c>
+      <c r="E15">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>1.67</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>100.10000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B16">
+        <v>66.5</v>
+      </c>
+      <c r="C16">
+        <v>2.5</v>
+      </c>
+      <c r="D16">
+        <v>19.7</v>
+      </c>
+      <c r="E16">
+        <v>1.7</v>
+      </c>
+      <c r="F16">
+        <v>14.3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B17">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C17">
+        <v>2.4</v>
+      </c>
+      <c r="D17">
+        <v>68.5</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>14.8</v>
+      </c>
+      <c r="G17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>101.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B18">
+        <v>50.2</v>
+      </c>
+      <c r="C18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D18">
+        <v>36.6</v>
+      </c>
+      <c r="E18">
+        <v>2.5</v>
+      </c>
+      <c r="F18">
+        <v>14.5</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>101.30000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B19">
+        <v>79.8</v>
+      </c>
+      <c r="C19">
+        <v>1.8</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F19">
+        <v>8.83</v>
+      </c>
+      <c r="G19">
+        <v>0.97</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>100.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B20">
+        <v>44.4</v>
+      </c>
+      <c r="C20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>2.8</v>
+      </c>
+      <c r="F20">
+        <v>16.8</v>
+      </c>
+      <c r="G20">
+        <v>1.6</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B21">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <v>1.4</v>
+      </c>
+      <c r="D21">
+        <v>11.9</v>
+      </c>
+      <c r="E21">
+        <v>1.3</v>
+      </c>
+      <c r="F21">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G21">
+        <v>1.37</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>101.02000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B22">
+        <v>63.7</v>
+      </c>
+      <c r="C22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D22">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>1.9</v>
+      </c>
+      <c r="F22">
+        <v>7.13</v>
+      </c>
+      <c r="G22">
+        <v>2.25</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>98.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B23">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D23">
+        <v>36.9</v>
+      </c>
+      <c r="E23">
+        <v>2.7</v>
+      </c>
+      <c r="F23">
+        <v>12.7</v>
+      </c>
+      <c r="G23">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>100.60000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B24">
+        <v>34.6</v>
+      </c>
+      <c r="C24">
+        <v>3.4</v>
+      </c>
+      <c r="D24">
+        <v>49.9</v>
+      </c>
+      <c r="E24">
+        <v>3.8</v>
+      </c>
+      <c r="F24">
+        <v>13.3</v>
+      </c>
+      <c r="G24">
+        <v>3.9</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B25">
+        <v>14.4</v>
+      </c>
+      <c r="C25">
+        <v>4.3</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>3.9</v>
+      </c>
+      <c r="F25">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G25">
+        <v>2.7</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B26">
+        <v>37.1</v>
+      </c>
+      <c r="C26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D26">
+        <v>31.5</v>
+      </c>
+      <c r="E26">
+        <v>2.8</v>
+      </c>
+      <c r="F26">
+        <v>31.8</v>
+      </c>
+      <c r="G26">
+        <v>2.6</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>100.39999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B27">
+        <v>49.2</v>
+      </c>
+      <c r="C27">
+        <v>2.8</v>
+      </c>
+      <c r="D27">
+        <v>34.4</v>
+      </c>
+      <c r="E27">
+        <v>3.1</v>
+      </c>
+      <c r="F27">
+        <v>16.8</v>
+      </c>
+      <c r="G27">
+        <v>3.3</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>100.39999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B28">
+        <v>12.7</v>
+      </c>
+      <c r="C28">
+        <v>2.7</v>
+      </c>
+      <c r="D28">
+        <v>55.9</v>
+      </c>
+      <c r="E28">
+        <v>4.5</v>
+      </c>
+      <c r="F28">
+        <v>31.9</v>
+      </c>
+      <c r="G28">
+        <v>1.9</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B29">
+        <v>87</v>
+      </c>
+      <c r="C29">
+        <v>1.7</v>
+      </c>
+      <c r="D29">
+        <v>8.07</v>
+      </c>
+      <c r="E29">
+        <v>0.8</v>
+      </c>
+      <c r="F29">
+        <v>4.28</v>
+      </c>
+      <c r="G29">
+        <v>1.8</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>99.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B30">
+        <v>47.3</v>
+      </c>
+      <c r="C30">
+        <v>1.7</v>
+      </c>
+      <c r="D30">
+        <v>32.9</v>
+      </c>
+      <c r="E30">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F30">
+        <v>18.8</v>
+      </c>
+      <c r="G30">
+        <v>2.4</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>98.999999999999986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B31">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C31">
+        <v>2.8</v>
+      </c>
+      <c r="D31">
+        <v>31.9</v>
+      </c>
+      <c r="E31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F31">
+        <v>31.8</v>
+      </c>
+      <c r="G31">
+        <v>2.1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>99.899999999999991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B32">
+        <v>63.5</v>
+      </c>
+      <c r="C32">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D32">
+        <v>29.8</v>
+      </c>
+      <c r="E32">
+        <v>2.8</v>
+      </c>
+      <c r="F32">
+        <v>6.67</v>
+      </c>
+      <c r="G32">
+        <v>2.82</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>99.97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B33">
+        <v>32.4</v>
+      </c>
+      <c r="C33">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D33">
+        <v>34.4</v>
+      </c>
+      <c r="E33">
+        <v>2.5</v>
+      </c>
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B34">
+        <v>49.6</v>
+      </c>
+      <c r="C34">
+        <v>1.9</v>
+      </c>
+      <c r="D34">
+        <v>17.8</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>31.1</v>
+      </c>
+      <c r="G34">
+        <v>3.9</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B35">
+        <v>69.2</v>
+      </c>
+      <c r="C35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D35">
+        <v>24.3</v>
+      </c>
+      <c r="E35">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F35">
+        <v>7.33</v>
+      </c>
+      <c r="G35">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>100.83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B36">
+        <v>50.2</v>
+      </c>
+      <c r="C36">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D36">
+        <v>30.3</v>
+      </c>
+      <c r="E36">
+        <v>2.8</v>
+      </c>
+      <c r="F36">
+        <v>20.5</v>
+      </c>
+      <c r="G36">
+        <v>3.2</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B37">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>16.3</v>
+      </c>
+      <c r="G37">
+        <v>2.7</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B38">
+        <v>22.3</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>55</v>
+      </c>
+      <c r="E38">
+        <v>3.7</v>
+      </c>
+      <c r="F38">
+        <v>20.7</v>
+      </c>
+      <c r="G38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B39">
+        <v>91.3</v>
+      </c>
+      <c r="C39">
+        <v>1.9</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>3.83</v>
+      </c>
+      <c r="G39">
+        <v>1.57</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>99.13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B40">
+        <v>16.3</v>
+      </c>
+      <c r="C40">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D40">
+        <v>61.3</v>
+      </c>
+      <c r="E40">
+        <v>4.3</v>
+      </c>
+      <c r="F40">
+        <v>21.4</v>
+      </c>
+      <c r="G40">
+        <v>3.7</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B41">
+        <v>29</v>
+      </c>
+      <c r="C41">
+        <v>3.9</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>2.7</v>
+      </c>
+      <c r="F41">
+        <v>29</v>
+      </c>
+      <c r="G41">
+        <v>2.5</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B42">
+        <v>41.5</v>
+      </c>
+      <c r="C42">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>26.8</v>
+      </c>
+      <c r="G42">
+        <v>3.2</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B43">
+        <v>28.7</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>43.9</v>
+      </c>
+      <c r="E43">
+        <v>3.7</v>
+      </c>
+      <c r="F43">
+        <v>27.1</v>
+      </c>
+      <c r="G43">
+        <v>3.4</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>99.699999999999989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B44">
+        <v>59.6</v>
+      </c>
+      <c r="C44">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D44">
+        <v>31</v>
+      </c>
+      <c r="E44">
+        <v>3.2</v>
+      </c>
+      <c r="F44">
+        <v>7.83</v>
+      </c>
+      <c r="G44">
+        <v>2.83</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>98.429999999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>1.4</v>
+      </c>
+      <c r="D45">
+        <v>18.5</v>
+      </c>
+      <c r="E45">
+        <v>2.8</v>
+      </c>
+      <c r="F45">
+        <v>31.3</v>
+      </c>
+      <c r="G45">
+        <v>3.5</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B46">
+        <v>83.8</v>
+      </c>
+      <c r="C46">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>5.42</v>
+      </c>
+      <c r="G46">
+        <v>1.85</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>100.22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B47">
+        <v>27.9</v>
+      </c>
+      <c r="C47">
+        <v>6.7</v>
+      </c>
+      <c r="D47">
+        <v>48</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>23.6</v>
+      </c>
+      <c r="G47">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B48">
+        <v>52.5</v>
+      </c>
+      <c r="C48">
+        <v>2.5</v>
+      </c>
+      <c r="D48">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>14</v>
+      </c>
+      <c r="G48">
+        <v>2.5</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B49">
+        <v>26.8</v>
+      </c>
+      <c r="C49">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D49">
+        <v>64.3</v>
+      </c>
+      <c r="E49">
+        <v>6.5</v>
+      </c>
+      <c r="F49">
+        <v>7.62</v>
+      </c>
+      <c r="G49">
+        <v>2.5</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>98.72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B50">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D50">
+        <v>31.3</v>
+      </c>
+      <c r="E50">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F50">
+        <v>17.3</v>
+      </c>
+      <c r="G50">
+        <v>1.7</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B51">
+        <v>75</v>
+      </c>
+      <c r="C51">
+        <v>1.8</v>
+      </c>
+      <c r="D51">
+        <v>16.7</v>
+      </c>
+      <c r="E51">
+        <v>1.3</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>1.6</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>2.7</v>
+      </c>
+      <c r="D52">
+        <v>62.3</v>
+      </c>
+      <c r="E52">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F52">
+        <v>25.1</v>
+      </c>
+      <c r="G52">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B53">
+        <v>52.1</v>
+      </c>
+      <c r="C53">
+        <v>2.1</v>
+      </c>
+      <c r="D53">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E53">
+        <v>2.6</v>
+      </c>
+      <c r="F53">
+        <v>14.7</v>
+      </c>
+      <c r="G53">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>100.10000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B54">
+        <v>20.3</v>
+      </c>
+      <c r="C54">
+        <v>1.8</v>
+      </c>
+      <c r="D54">
+        <v>57.8</v>
+      </c>
+      <c r="E54">
+        <v>3.6</v>
+      </c>
+      <c r="F54">
+        <v>20.9</v>
+      </c>
+      <c r="G54">
+        <v>3.6</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B55">
+        <v>69.7</v>
+      </c>
+      <c r="C55">
+        <v>1.7</v>
+      </c>
+      <c r="D55">
+        <v>21.7</v>
+      </c>
+      <c r="E55">
+        <v>1.9</v>
+      </c>
+      <c r="F55">
+        <v>9.33</v>
+      </c>
+      <c r="G55">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>100.73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B56">
+        <v>12.5</v>
+      </c>
+      <c r="C56">
+        <v>3.7</v>
+      </c>
+      <c r="D56">
+        <v>65</v>
+      </c>
+      <c r="E56">
+        <v>3.5</v>
+      </c>
+      <c r="F56">
+        <v>21.4</v>
+      </c>
+      <c r="G56">
+        <v>3.2</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B57">
+        <v>21</v>
+      </c>
+      <c r="C57">
+        <v>3.9</v>
+      </c>
+      <c r="D57">
+        <v>44.8</v>
+      </c>
+      <c r="E57">
+        <v>4.2</v>
+      </c>
+      <c r="F57">
+        <v>33</v>
+      </c>
+      <c r="G57">
+        <v>3.7</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B58">
+        <v>47</v>
+      </c>
+      <c r="C58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D58">
+        <v>44.9</v>
+      </c>
+      <c r="E58">
+        <v>3.4</v>
+      </c>
+      <c r="F58">
+        <v>8.24</v>
+      </c>
+      <c r="G58">
+        <v>2.23</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>100.14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B59">
+        <v>20.8</v>
+      </c>
+      <c r="C59">
+        <v>3.2</v>
+      </c>
+      <c r="D59">
+        <v>51.6</v>
+      </c>
+      <c r="E59">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F59">
+        <v>26</v>
+      </c>
+      <c r="G59">
+        <v>5.6</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B60">
+        <v>70.7</v>
+      </c>
+      <c r="C60">
+        <v>1.8</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F60">
+        <v>9.19</v>
+      </c>
+      <c r="G60">
+        <v>3.4</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>99.89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B61">
+        <v>24.4</v>
+      </c>
+      <c r="C61">
+        <v>3.1</v>
+      </c>
+      <c r="D61">
+        <v>57</v>
+      </c>
+      <c r="E61">
+        <v>3.7</v>
+      </c>
+      <c r="F61">
+        <v>17.2</v>
+      </c>
+      <c r="G61">
+        <v>3.3</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>98.600000000000009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B62">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>1.9</v>
+      </c>
+      <c r="D62">
+        <v>7.63</v>
+      </c>
+      <c r="E62">
+        <v>1.63</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>1.96</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>100.63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B63">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="C63">
+        <v>2.1</v>
+      </c>
+      <c r="D63">
+        <v>16.8</v>
+      </c>
+      <c r="E63">
+        <v>1.5</v>
+      </c>
+      <c r="F63">
+        <v>6.67</v>
+      </c>
+      <c r="G63">
+        <v>1.83</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>101.07</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B64">
+        <v>44.7</v>
+      </c>
+      <c r="C64">
+        <v>2.5</v>
+      </c>
+      <c r="D64">
+        <v>31</v>
+      </c>
+      <c r="E64">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F64">
+        <v>25.8</v>
+      </c>
+      <c r="G64">
+        <v>3.8</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B65">
+        <v>33</v>
+      </c>
+      <c r="C65">
+        <v>3.5</v>
+      </c>
+      <c r="D65">
+        <v>22</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>45.5</v>
+      </c>
+      <c r="G65">
+        <v>3.3</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B66">
+        <v>55.5</v>
+      </c>
+      <c r="C66">
+        <v>1.8</v>
+      </c>
+      <c r="D66">
+        <v>27.8</v>
+      </c>
+      <c r="E66">
+        <v>3.5</v>
+      </c>
+      <c r="F66">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G66">
+        <v>3.8</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B67">
+        <v>29.6</v>
+      </c>
+      <c r="C67">
+        <v>2.9</v>
+      </c>
+      <c r="D67" s="2249">
+        <v>36.4</v>
+      </c>
+      <c r="E67" s="2249">
+        <v>3.7</v>
+      </c>
+      <c r="F67" s="2249">
+        <v>29.2</v>
+      </c>
+      <c r="G67" s="2249">
+        <v>3.2</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B68">
+        <v>21.1</v>
+      </c>
+      <c r="C68">
+        <v>3.1</v>
+      </c>
+      <c r="D68" s="2249">
+        <v>60.2</v>
+      </c>
+      <c r="E68" s="2249">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F68" s="2249">
+        <v>22.4</v>
+      </c>
+      <c r="G68" s="2249">
+        <v>5.8</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I71" si="1">B68+D68+F68</f>
+        <v>103.70000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B69">
+        <v>49.7</v>
+      </c>
+      <c r="C69">
+        <v>1.7</v>
+      </c>
+      <c r="D69" s="2249">
+        <v>39.6</v>
+      </c>
+      <c r="E69" s="2249">
+        <v>3.4</v>
+      </c>
+      <c r="F69" s="2249">
+        <v>15</v>
+      </c>
+      <c r="G69" s="2249">
+        <v>2.9</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>104.30000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B70">
+        <v>24.3</v>
+      </c>
+      <c r="C70">
+        <v>1.7</v>
+      </c>
+      <c r="D70" s="2249">
+        <v>54.9</v>
+      </c>
+      <c r="E70" s="2249">
+        <v>5.9</v>
+      </c>
+      <c r="F70" s="2249">
+        <v>15.2</v>
+      </c>
+      <c r="G70" s="2249">
+        <v>3.8</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B71">
+        <v>57.2</v>
+      </c>
+      <c r="C71">
+        <v>3.2</v>
+      </c>
+      <c r="D71" s="2249">
+        <v>33.5</v>
+      </c>
+      <c r="E71" s="2249">
+        <v>2.5</v>
+      </c>
+      <c r="F71" s="2249">
+        <v>9</v>
+      </c>
+      <c r="G71" s="2249">
+        <v>1.8</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>99.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45669,8 +47525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G864"/>
   <sheetViews>
-    <sheetView topLeftCell="A848" workbookViewId="0">
-      <selection activeCell="A854" sqref="A854:XFD857"/>
+    <sheetView topLeftCell="A841" workbookViewId="0">
+      <selection activeCell="A865" sqref="A865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results_data_all.xlsx
+++ b/Results_data_all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7365" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Results_data_all" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,17 @@
     <sheet name="Results_data_all_two (2)" sheetId="7" r:id="rId6"/>
     <sheet name="ALP" sheetId="9" r:id="rId7"/>
     <sheet name="Combined" sheetId="8" r:id="rId8"/>
+    <sheet name="Selected" sheetId="10" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">Selected!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5382" uniqueCount="1985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5551" uniqueCount="2000">
   <si>
     <t>V1</t>
   </si>
@@ -5981,6 +5985,51 @@
   </si>
   <si>
     <t>SRS1715</t>
+  </si>
+  <si>
+    <t>CLAY</t>
+  </si>
+  <si>
+    <t>SILT</t>
+  </si>
+  <si>
+    <t>SAND</t>
+  </si>
+  <si>
+    <t>TextureClass</t>
+  </si>
+  <si>
+    <t>TextureFactor</t>
+  </si>
+  <si>
+    <t>SIL</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SICL</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -5990,7 +6039,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -6025,6 +6074,13 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="13.5"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6039,7 +6095,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -6047,6 +6103,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6067,7 +6138,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2250">
+  <cellXfs count="2253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
@@ -12800,6 +12871,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -45585,7 +45659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I66" sqref="I66:I71"/>
     </sheetView>
   </sheetViews>
@@ -47523,10 +47597,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G864"/>
+  <dimension ref="A1:H864"/>
   <sheetViews>
-    <sheetView topLeftCell="A841" workbookViewId="0">
-      <selection activeCell="A865" sqref="A865"/>
+    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47534,7 +47608,7 @@
     <col min="1" max="1" width="22.7109375" style="443" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="442" t="s">
         <v>212</v>
       </c>
@@ -47557,7 +47631,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>213</v>
       </c>
@@ -47580,7 +47654,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>214</v>
       </c>
@@ -47603,7 +47677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>215</v>
       </c>
@@ -47625,8 +47699,11 @@
       <c r="G4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>376</v>
       </c>
@@ -47649,7 +47726,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>377</v>
       </c>
@@ -47672,7 +47749,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>378</v>
       </c>
@@ -47695,7 +47772,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>379</v>
       </c>
@@ -47718,7 +47795,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>380</v>
       </c>
@@ -47741,7 +47818,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>381</v>
       </c>
@@ -47764,7 +47841,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>382</v>
       </c>
@@ -47787,7 +47864,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>383</v>
       </c>
@@ -47810,7 +47887,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>384</v>
       </c>
@@ -47833,7 +47910,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>385</v>
       </c>
@@ -47856,7 +47933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>215</v>
       </c>
@@ -47879,7 +47956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>386</v>
       </c>
@@ -62189,4 +62266,1127 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F55" sqref="A1:F55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="17.140625" style="443" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="443" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="443" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="443" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="443"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2250" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1" s="2250" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C1" s="2250" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D1" s="2250" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E1" s="2250" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F1" s="2250" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2251">
+        <v>11.553784860557768</v>
+      </c>
+      <c r="B2" s="2251">
+        <v>50.398406374501988</v>
+      </c>
+      <c r="C2" s="2251">
+        <v>38.047808764940235</v>
+      </c>
+      <c r="D2" s="2252" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" s="2252" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F2" s="2252" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="2251">
+        <v>6.1220413462498753</v>
+      </c>
+      <c r="B3" s="2251">
+        <v>17.477279536602417</v>
+      </c>
+      <c r="C3" s="2251">
+        <v>76.400679117147718</v>
+      </c>
+      <c r="D3" s="2252" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="2252" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F3" s="2252" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2251">
+        <v>4.9751243781094532</v>
+      </c>
+      <c r="B4" s="2251">
+        <v>21.890547263681594</v>
+      </c>
+      <c r="C4" s="2251">
+        <v>73.134328358208961</v>
+      </c>
+      <c r="D4" s="2252" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" s="2252" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F4" s="2252" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="2251">
+        <v>10.030090270812437</v>
+      </c>
+      <c r="B5" s="2251">
+        <v>33.801404212637919</v>
+      </c>
+      <c r="C5" s="2251">
+        <v>56.168505516549651</v>
+      </c>
+      <c r="D5" s="2252" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" s="2252" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F5" s="2252" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="2251">
+        <v>17.119838872104733</v>
+      </c>
+      <c r="B6" s="2251">
+        <v>38.670694864048336</v>
+      </c>
+      <c r="C6" s="2251">
+        <v>44.209466263846927</v>
+      </c>
+      <c r="D6" s="2252" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" s="2252" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F6" s="2252" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2251">
+        <v>17.588932806324109</v>
+      </c>
+      <c r="B7" s="2251">
+        <v>30.830039525691699</v>
+      </c>
+      <c r="C7" s="2251">
+        <v>51.581027667984188</v>
+      </c>
+      <c r="D7" s="2252" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" s="2252" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F7" s="2252" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="2251">
+        <v>24.233432245301682</v>
+      </c>
+      <c r="B8" s="2251">
+        <v>60.435212660731949</v>
+      </c>
+      <c r="C8" s="2251">
+        <v>15.331355093966371</v>
+      </c>
+      <c r="D8" s="2252" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" s="2252" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F8" s="2252" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="2251">
+        <v>9.5452273863068466</v>
+      </c>
+      <c r="B9" s="2251">
+        <v>27.486256871564219</v>
+      </c>
+      <c r="C9" s="2251">
+        <v>62.968515742128936</v>
+      </c>
+      <c r="D9" s="2252" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" s="2252" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F9" s="2252" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="2251">
+        <v>8.0726538849646818</v>
+      </c>
+      <c r="B10" s="2251">
+        <v>9.0817356205852668</v>
+      </c>
+      <c r="C10" s="2251">
+        <v>82.845610494450042</v>
+      </c>
+      <c r="D10" s="2252" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="2252" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F10" s="2252" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="2251">
+        <v>14.955134596211366</v>
+      </c>
+      <c r="B11" s="2251">
+        <v>63.110667996011962</v>
+      </c>
+      <c r="C11" s="2251">
+        <v>21.934197407776672</v>
+      </c>
+      <c r="D11" s="2252" t="s">
+        <v>394</v>
+      </c>
+      <c r="E11" s="2252" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F11" s="2252" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="2251">
+        <v>18.245264207377868</v>
+      </c>
+      <c r="B12" s="2251">
+        <v>64.307078763708873</v>
+      </c>
+      <c r="C12" s="2251">
+        <v>17.447657028913262</v>
+      </c>
+      <c r="D12" s="2252" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="2252" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F12" s="2252" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="2251">
+        <v>10.079840319361278</v>
+      </c>
+      <c r="B13" s="2251">
+        <v>17.964071856287426</v>
+      </c>
+      <c r="C13" s="2251">
+        <v>71.9560878243513</v>
+      </c>
+      <c r="D13" s="2252" t="s">
+        <v>398</v>
+      </c>
+      <c r="E13" s="2252" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F13" s="2252" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="2251">
+        <v>22.791164658634539</v>
+      </c>
+      <c r="B14" s="2251">
+        <v>64.056224899598391</v>
+      </c>
+      <c r="C14" s="2251">
+        <v>13.152610441767068</v>
+      </c>
+      <c r="D14" s="2252" t="s">
+        <v>400</v>
+      </c>
+      <c r="E14" s="2252" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F14" s="2252" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="2251">
+        <v>4.6329723225030088</v>
+      </c>
+      <c r="B15" s="2251">
+        <v>6.4179703168872848</v>
+      </c>
+      <c r="C15" s="2251">
+        <v>88.949057360609714</v>
+      </c>
+      <c r="D15" s="2252" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15" s="2252" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F15" s="2252" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="2251">
+        <v>16.981132075471699</v>
+      </c>
+      <c r="B16" s="2251">
+        <v>58.589870903674274</v>
+      </c>
+      <c r="C16" s="2251">
+        <v>24.42899702085402</v>
+      </c>
+      <c r="D16" s="2252" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" s="2252" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F16" s="2252" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="2251">
+        <v>26.479438314944833</v>
+      </c>
+      <c r="B17" s="2251">
+        <v>31.293881644934803</v>
+      </c>
+      <c r="C17" s="2251">
+        <v>42.226680040120364</v>
+      </c>
+      <c r="D17" s="2252" t="s">
+        <v>408</v>
+      </c>
+      <c r="E17" s="2252" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F17" s="2252" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="2251">
+        <v>29.761904761904763</v>
+      </c>
+      <c r="B18" s="2251">
+        <v>31.746031746031747</v>
+      </c>
+      <c r="C18" s="2251">
+        <v>38.492063492063494</v>
+      </c>
+      <c r="D18" s="2252" t="s">
+        <v>410</v>
+      </c>
+      <c r="E18" s="2252" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F18" s="2252" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="2251">
+        <v>4.7523761880940469</v>
+      </c>
+      <c r="B19" s="2251">
+        <v>8.0040020010005009</v>
+      </c>
+      <c r="C19" s="2251">
+        <v>87.243621810905466</v>
+      </c>
+      <c r="D19" s="2252" t="s">
+        <v>412</v>
+      </c>
+      <c r="E19" s="2252" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F19" s="2252" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="2251">
+        <v>2.1847070506454815</v>
+      </c>
+      <c r="B20" s="2251">
+        <v>2.7805362462760672</v>
+      </c>
+      <c r="C20" s="2251">
+        <v>95.034756703078443</v>
+      </c>
+      <c r="D20" s="2252" t="s">
+        <v>414</v>
+      </c>
+      <c r="E20" s="2252" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F20" s="2252" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="2251">
+        <v>4.0040040040040035</v>
+      </c>
+      <c r="B21" s="2251">
+        <v>12.012012012012011</v>
+      </c>
+      <c r="C21" s="2251">
+        <v>83.983983983983975</v>
+      </c>
+      <c r="D21" s="2252" t="s">
+        <v>416</v>
+      </c>
+      <c r="E21" s="2252" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F21" s="2252" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="2251">
+        <v>19.641076769690926</v>
+      </c>
+      <c r="B22" s="2251">
+        <v>30.109670987038882</v>
+      </c>
+      <c r="C22" s="2251">
+        <v>50.249252243270192</v>
+      </c>
+      <c r="D22" s="2252" t="s">
+        <v>420</v>
+      </c>
+      <c r="E22" s="2252" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F22" s="2252" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="2251">
+        <v>21.787148594377509</v>
+      </c>
+      <c r="B23" s="2251">
+        <v>35.040160642570278</v>
+      </c>
+      <c r="C23" s="2251">
+        <v>43.172690763052209</v>
+      </c>
+      <c r="D23" s="2252" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="2252" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F23" s="2252" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="2251">
+        <v>21.26379137412237</v>
+      </c>
+      <c r="B24" s="2251">
+        <v>11.735205616850553</v>
+      </c>
+      <c r="C24" s="2251">
+        <v>67.001003009027087</v>
+      </c>
+      <c r="D24" s="2252" t="s">
+        <v>424</v>
+      </c>
+      <c r="E24" s="2252" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F24" s="2252" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="2251">
+        <v>52.235772357723569</v>
+      </c>
+      <c r="B25" s="2251">
+        <v>30.487804878048777</v>
+      </c>
+      <c r="C25" s="2251">
+        <v>17.27642276422764</v>
+      </c>
+      <c r="D25" s="2252" t="s">
+        <v>426</v>
+      </c>
+      <c r="E25" s="2252" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F25" s="2252" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="2251">
+        <v>14.028056112224451</v>
+      </c>
+      <c r="B26" s="2251">
+        <v>21.042084168336675</v>
+      </c>
+      <c r="C26" s="2251">
+        <v>64.92985971943888</v>
+      </c>
+      <c r="D26" s="2252" t="s">
+        <v>428</v>
+      </c>
+      <c r="E26" s="2252" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F26" s="2252" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="2251">
+        <v>7.9920079920079923</v>
+      </c>
+      <c r="B27" s="2251">
+        <v>29.570429570429575</v>
+      </c>
+      <c r="C27" s="2251">
+        <v>62.437562437562441</v>
+      </c>
+      <c r="D27" s="2252" t="s">
+        <v>430</v>
+      </c>
+      <c r="E27" s="2252" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F27" s="2252" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="2251">
+        <v>14.098690835850956</v>
+      </c>
+      <c r="B28" s="2251">
+        <v>35.246727089627392</v>
+      </c>
+      <c r="C28" s="2251">
+        <v>50.654582074521649</v>
+      </c>
+      <c r="D28" s="2252" t="s">
+        <v>442</v>
+      </c>
+      <c r="E28" s="2252" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F28" s="2252" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="2251">
+        <v>6.6</v>
+      </c>
+      <c r="B29" s="2251">
+        <v>8.4</v>
+      </c>
+      <c r="C29" s="2251">
+        <v>85</v>
+      </c>
+      <c r="D29" s="2252" t="s">
+        <v>446</v>
+      </c>
+      <c r="E29" s="2252" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F29" s="2252" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="2251">
+        <v>50.454086781029261</v>
+      </c>
+      <c r="B30" s="2251">
+        <v>22.704339051463169</v>
+      </c>
+      <c r="C30" s="2251">
+        <v>26.84157416750757</v>
+      </c>
+      <c r="D30" s="2252" t="s">
+        <v>452</v>
+      </c>
+      <c r="E30" s="2252" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F30" s="2252" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="2251">
+        <v>54.024144869215291</v>
+      </c>
+      <c r="B31" s="2251">
+        <v>29.47686116700201</v>
+      </c>
+      <c r="C31" s="2251">
+        <v>16.498993963782695</v>
+      </c>
+      <c r="D31" s="2252" t="s">
+        <v>462</v>
+      </c>
+      <c r="E31" s="2252" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F31" s="2252" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="2251">
+        <v>52.261306532663312</v>
+      </c>
+      <c r="B32" s="2251">
+        <v>31.658291457286431</v>
+      </c>
+      <c r="C32" s="2251">
+        <v>16.08040201005025</v>
+      </c>
+      <c r="D32" s="2252" t="s">
+        <v>468</v>
+      </c>
+      <c r="E32" s="2252" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F32" s="2252" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="2251">
+        <v>25.722831505483551</v>
+      </c>
+      <c r="B33" s="2251">
+        <v>19.541375872382854</v>
+      </c>
+      <c r="C33" s="2251">
+        <v>54.735792622133602</v>
+      </c>
+      <c r="D33" s="2252" t="s">
+        <v>474</v>
+      </c>
+      <c r="E33" s="2252" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F33" s="2252" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="2251">
+        <v>30.211480362537763</v>
+      </c>
+      <c r="B34" s="2251">
+        <v>48.841893252769381</v>
+      </c>
+      <c r="C34" s="2251">
+        <v>20.946626384692852</v>
+      </c>
+      <c r="D34" s="2252" t="s">
+        <v>482</v>
+      </c>
+      <c r="E34" s="2252" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F34" s="2252" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="2251">
+        <v>8.9463220675944335</v>
+      </c>
+      <c r="B35" s="2251">
+        <v>8.9463220675944335</v>
+      </c>
+      <c r="C35" s="2251">
+        <v>82.107355864811126</v>
+      </c>
+      <c r="D35" s="2252" t="s">
+        <v>488</v>
+      </c>
+      <c r="E35" s="2252" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F35" s="2252" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="2251">
+        <v>35.175879396984925</v>
+      </c>
+      <c r="B36" s="2251">
+        <v>28.844221105527634</v>
+      </c>
+      <c r="C36" s="2251">
+        <v>35.97989949748743</v>
+      </c>
+      <c r="D36" s="2252" t="s">
+        <v>490</v>
+      </c>
+      <c r="E36" s="2252" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F36" s="2252" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="2251">
+        <v>33.696729435084237</v>
+      </c>
+      <c r="B37" s="2251">
+        <v>49.157581764122888</v>
+      </c>
+      <c r="C37" s="2251">
+        <v>17.145688800792865</v>
+      </c>
+      <c r="D37" s="2252" t="s">
+        <v>492</v>
+      </c>
+      <c r="E37" s="2252" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F37" s="2252" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="2251">
+        <v>35.984095427435392</v>
+      </c>
+      <c r="B38" s="2251">
+        <v>28.230616302186878</v>
+      </c>
+      <c r="C38" s="2251">
+        <v>35.785288270377734</v>
+      </c>
+      <c r="D38" s="2252" t="s">
+        <v>496</v>
+      </c>
+      <c r="E38" s="2252" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F38" s="2252" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="2251">
+        <v>35.671342685370746</v>
+      </c>
+      <c r="B39" s="2251">
+        <v>51.402805611222448</v>
+      </c>
+      <c r="C39" s="2251">
+        <v>12.925851703406815</v>
+      </c>
+      <c r="D39" s="2252" t="s">
+        <v>520</v>
+      </c>
+      <c r="E39" s="2252" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F39" s="2252" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="2251">
+        <v>30.382293762575458</v>
+      </c>
+      <c r="B40" s="2251">
+        <v>57.645875251509061</v>
+      </c>
+      <c r="C40" s="2251">
+        <v>11.971830985915496</v>
+      </c>
+      <c r="D40" s="2252" t="s">
+        <v>530</v>
+      </c>
+      <c r="E40" s="2252" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F40" s="2252" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="2251">
+        <v>21.756487025948104</v>
+      </c>
+      <c r="B41" s="2251">
+        <v>11.177644710578841</v>
+      </c>
+      <c r="C41" s="2251">
+        <v>67.06586826347305</v>
+      </c>
+      <c r="D41" s="2252" t="s">
+        <v>540</v>
+      </c>
+      <c r="E41" s="2252" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F41" s="2252" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="2251">
+        <v>29.713114754098363</v>
+      </c>
+      <c r="B42" s="2251">
+        <v>58.913934426229517</v>
+      </c>
+      <c r="C42" s="2251">
+        <v>11.372950819672132</v>
+      </c>
+      <c r="D42" s="2252" t="s">
+        <v>544</v>
+      </c>
+      <c r="E42" s="2252" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F42" s="2252" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="2251">
+        <v>29.63330029732408</v>
+      </c>
+      <c r="B43" s="2251">
+        <v>55.500495540138743</v>
+      </c>
+      <c r="C43" s="2251">
+        <v>14.866204162537164</v>
+      </c>
+      <c r="D43" s="2252" t="s">
+        <v>550</v>
+      </c>
+      <c r="E43" s="2252" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F43" s="2252" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="2251">
+        <v>4.7952047952047954</v>
+      </c>
+      <c r="B44" s="2251">
+        <v>7.2927072927072931</v>
+      </c>
+      <c r="C44" s="2251">
+        <v>87.912087912087912</v>
+      </c>
+      <c r="D44" s="2252" t="s">
+        <v>552</v>
+      </c>
+      <c r="E44" s="2252" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F44" s="2252" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="2251">
+        <v>29.789368104312938</v>
+      </c>
+      <c r="B45" s="2251">
+        <v>55.867602808425282</v>
+      </c>
+      <c r="C45" s="2251">
+        <v>14.343029087261787</v>
+      </c>
+      <c r="D45" s="2252" t="s">
+        <v>556</v>
+      </c>
+      <c r="E45" s="2252" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F45" s="2252" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A46" s="2251">
+        <v>50.704225352112672</v>
+      </c>
+      <c r="B46" s="2251">
+        <v>31.187122736418509</v>
+      </c>
+      <c r="C46" s="2251">
+        <v>18.108651911468812</v>
+      </c>
+      <c r="D46" s="2252" t="s">
+        <v>560</v>
+      </c>
+      <c r="E46" s="2252" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F46" s="2252" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A47" s="2251">
+        <v>53.137651821862349</v>
+      </c>
+      <c r="B47" s="2251">
+        <v>30.668016194331983</v>
+      </c>
+      <c r="C47" s="2251">
+        <v>16.194331983805668</v>
+      </c>
+      <c r="D47" s="2252" t="s">
+        <v>576</v>
+      </c>
+      <c r="E47" s="2252" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F47" s="2252" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A48" s="2251">
+        <v>28.109696376101862</v>
+      </c>
+      <c r="B48" s="2251">
+        <v>43.095004897159654</v>
+      </c>
+      <c r="C48" s="2251">
+        <v>28.795298726738494</v>
+      </c>
+      <c r="D48" s="2252" t="s">
+        <v>582</v>
+      </c>
+      <c r="E48" s="2252" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F48" s="2252" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="2251">
+        <v>4.9554013875123886</v>
+      </c>
+      <c r="B49" s="2251">
+        <v>3.8652130822596629</v>
+      </c>
+      <c r="C49" s="2251">
+        <v>91.179385530227947</v>
+      </c>
+      <c r="D49" s="2252" t="s">
+        <v>604</v>
+      </c>
+      <c r="E49" s="2252" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F49" s="2252" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="2251">
+        <v>29.37062937062937</v>
+      </c>
+      <c r="B50" s="2251">
+        <v>41.658341658341662</v>
+      </c>
+      <c r="C50" s="2251">
+        <v>28.971028971028971</v>
+      </c>
+      <c r="D50" s="2252" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E50" s="2252" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F50" s="2252" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A51" s="2251">
+        <v>4.9900199600798398</v>
+      </c>
+      <c r="B51" s="2251">
+        <v>2.2954091816367264</v>
+      </c>
+      <c r="C51" s="2251">
+        <v>92.714570858283437</v>
+      </c>
+      <c r="D51" s="2252" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E51" s="2252" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F51" s="2252" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="2251">
+        <v>3.4864030281900584</v>
+      </c>
+      <c r="B52" s="2251">
+        <v>2.5799382408606433</v>
+      </c>
+      <c r="C52" s="2251">
+        <v>93.93365873094929</v>
+      </c>
+      <c r="D52" s="2252" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E52" s="2252" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F52" s="2252" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A53" s="2251">
+        <v>31.573604060913706</v>
+      </c>
+      <c r="B53" s="2251">
+        <v>18.071065989847714</v>
+      </c>
+      <c r="C53" s="2251">
+        <v>50.35532994923858</v>
+      </c>
+      <c r="D53" s="2252" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E53" s="2252" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F53" s="2252" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A54" s="2251">
+        <v>31.362725450901809</v>
+      </c>
+      <c r="B54" s="2251">
+        <v>18.537074148296597</v>
+      </c>
+      <c r="C54" s="2251">
+        <v>50.100200400801612</v>
+      </c>
+      <c r="D54" s="2252" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E54" s="2252" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F54" s="2252" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A55" s="2251">
+        <v>45.273631840796021</v>
+      </c>
+      <c r="B55" s="2251">
+        <v>21.890547263681594</v>
+      </c>
+      <c r="C55" s="2251">
+        <v>32.835820895522389</v>
+      </c>
+      <c r="D55" s="2252" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E55" s="2252" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F55" s="2252" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results_data_all.xlsx
+++ b/Results_data_all.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7365" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7365" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Results_data_all" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Results_data_all_two" sheetId="6" r:id="rId5"/>
     <sheet name="Results_data_all_two (2)" sheetId="7" r:id="rId6"/>
     <sheet name="ALP" sheetId="9" r:id="rId7"/>
-    <sheet name="Combined" sheetId="8" r:id="rId8"/>
+    <sheet name="Combined" sheetId="11" r:id="rId8"/>
     <sheet name="Selected" sheetId="10" r:id="rId9"/>
+    <sheet name="Selected_Original" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">Selected!$1:$1</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5551" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6048" uniqueCount="2066">
   <si>
     <t>V1</t>
   </si>
@@ -6029,7 +6030,205 @@
     <t>SICL</t>
   </si>
   <si>
-    <t>=</t>
+    <t>Soil 2004-118_Median</t>
+  </si>
+  <si>
+    <t>Soil 2004-118_MAD</t>
+  </si>
+  <si>
+    <t>Soil 2005-117_Median</t>
+  </si>
+  <si>
+    <t>Soil 2005-117_MAD</t>
+  </si>
+  <si>
+    <t>CLAY_Norm</t>
+  </si>
+  <si>
+    <t>SILT_Norm</t>
+  </si>
+  <si>
+    <t>SAND_Norm</t>
+  </si>
+  <si>
+    <t>SAMPLE</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>ANALYSIS</t>
+  </si>
+  <si>
+    <t>2011-116</t>
+  </si>
+  <si>
+    <t>2011-117</t>
+  </si>
+  <si>
+    <t>2011-118</t>
+  </si>
+  <si>
+    <t>2011-119</t>
+  </si>
+  <si>
+    <t>2011-120</t>
+  </si>
+  <si>
+    <t>2017-111</t>
+  </si>
+  <si>
+    <t>2017-112</t>
+  </si>
+  <si>
+    <t>2017-113</t>
+  </si>
+  <si>
+    <t>2017-114</t>
+  </si>
+  <si>
+    <t>2017-115</t>
+  </si>
+  <si>
+    <t>2012-116</t>
+  </si>
+  <si>
+    <t>2012-117</t>
+  </si>
+  <si>
+    <t>2012-118</t>
+  </si>
+  <si>
+    <t>2012-119</t>
+  </si>
+  <si>
+    <t>2012-210</t>
+  </si>
+  <si>
+    <t>2012-112</t>
+  </si>
+  <si>
+    <t>2012-113</t>
+  </si>
+  <si>
+    <t>2012-114</t>
+  </si>
+  <si>
+    <t>2012-115</t>
+  </si>
+  <si>
+    <t>2012-106</t>
+  </si>
+  <si>
+    <t>2012-108</t>
+  </si>
+  <si>
+    <t>2012-109</t>
+  </si>
+  <si>
+    <t>2012-110</t>
+  </si>
+  <si>
+    <t>2012-101</t>
+  </si>
+  <si>
+    <t>2012-102</t>
+  </si>
+  <si>
+    <t>2012-103</t>
+  </si>
+  <si>
+    <t>2013-119</t>
+  </si>
+  <si>
+    <t>2013-111</t>
+  </si>
+  <si>
+    <t>2013-114</t>
+  </si>
+  <si>
+    <t>2013-109</t>
+  </si>
+  <si>
+    <t>2013-102</t>
+  </si>
+  <si>
+    <t>2013-105</t>
+  </si>
+  <si>
+    <t>2014-119</t>
+  </si>
+  <si>
+    <t>2017-107</t>
+  </si>
+  <si>
+    <t>2017-108</t>
+  </si>
+  <si>
+    <t>2017-109</t>
+  </si>
+  <si>
+    <t>2014-111</t>
+  </si>
+  <si>
+    <t>2014-103</t>
+  </si>
+  <si>
+    <t>2015-118</t>
+  </si>
+  <si>
+    <t>2015-113</t>
+  </si>
+  <si>
+    <t>2015-115</t>
+  </si>
+  <si>
+    <t>2015-108</t>
+  </si>
+  <si>
+    <t>2015-109</t>
+  </si>
+  <si>
+    <t>2015-101</t>
+  </si>
+  <si>
+    <t>2015-103</t>
+  </si>
+  <si>
+    <t>2016-111</t>
+  </si>
+  <si>
+    <t>2016-114</t>
+  </si>
+  <si>
+    <t>2017-105</t>
+  </si>
+  <si>
+    <t>2011-112</t>
+  </si>
+  <si>
+    <t>2011-106</t>
+  </si>
+  <si>
+    <t>2005-107</t>
+  </si>
+  <si>
+    <t>2006-111</t>
+  </si>
+  <si>
+    <t>2010-112</t>
+  </si>
+  <si>
+    <t>2000-111</t>
+  </si>
+  <si>
+    <t>2000-103</t>
+  </si>
+  <si>
+    <t>Hydrometer</t>
+  </si>
+  <si>
+    <t>Pipette</t>
   </si>
 </sst>
 </file>
@@ -6039,7 +6238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -6074,13 +6273,6 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="13.5"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6095,7 +6287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -6103,21 +6295,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6138,7 +6315,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2253">
+  <cellXfs count="2581">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
@@ -12871,9 +13048,997 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26501,6 +27666,3967 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="12" style="443" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="443" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" style="443" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="443" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="443" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="443" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="443" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="443" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="442" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1" s="442" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1" s="442" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D1" s="442" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E1" s="442" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F1" s="442" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G1" s="442" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H1" s="442" t="s">
+        <v>2007</v>
+      </c>
+      <c r="I1" s="442" t="s">
+        <v>2008</v>
+      </c>
+      <c r="J1" s="442" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2580">
+        <v>11.553784860557768</v>
+      </c>
+      <c r="B2" s="2580">
+        <v>50.398406374501988</v>
+      </c>
+      <c r="C2" s="2580">
+        <v>38.047808764940235</v>
+      </c>
+      <c r="D2" s="2580">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E2" s="2580">
+        <v>50.6</v>
+      </c>
+      <c r="F2" s="2580">
+        <v>11.6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2580">
+        <v>6.1220413462498753</v>
+      </c>
+      <c r="B3" s="2580">
+        <v>17.477279536602417</v>
+      </c>
+      <c r="C3" s="2580">
+        <v>76.400679117147718</v>
+      </c>
+      <c r="D3" s="2580">
+        <v>76.5</v>
+      </c>
+      <c r="E3" s="2580">
+        <v>17.5</v>
+      </c>
+      <c r="F3" s="2580">
+        <v>6.13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2580">
+        <v>4.9751243781094532</v>
+      </c>
+      <c r="B4" s="2580">
+        <v>21.890547263681594</v>
+      </c>
+      <c r="C4" s="2580">
+        <v>73.134328358208961</v>
+      </c>
+      <c r="D4" s="2580">
+        <v>73.5</v>
+      </c>
+      <c r="E4" s="2580">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2580">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2580">
+        <v>10.030090270812437</v>
+      </c>
+      <c r="B5" s="2580">
+        <v>33.801404212637919</v>
+      </c>
+      <c r="C5" s="2580">
+        <v>56.168505516549651</v>
+      </c>
+      <c r="D5" s="2580">
+        <v>56</v>
+      </c>
+      <c r="E5" s="2580">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="F5" s="2580">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2580">
+        <v>17.119838872104733</v>
+      </c>
+      <c r="B6" s="2580">
+        <v>38.670694864048336</v>
+      </c>
+      <c r="C6" s="2580">
+        <v>44.209466263846927</v>
+      </c>
+      <c r="D6" s="2580">
+        <v>43.9</v>
+      </c>
+      <c r="E6" s="2580">
+        <v>38.4</v>
+      </c>
+      <c r="F6" s="2580">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2580">
+        <v>17.588932806324109</v>
+      </c>
+      <c r="B7" s="2580">
+        <v>30.830039525691699</v>
+      </c>
+      <c r="C7" s="2580">
+        <v>51.581027667984188</v>
+      </c>
+      <c r="D7" s="2580">
+        <v>52.2</v>
+      </c>
+      <c r="E7" s="2580">
+        <v>31.2</v>
+      </c>
+      <c r="F7" s="2580">
+        <v>17.8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2580">
+        <v>24.233432245301682</v>
+      </c>
+      <c r="B8" s="2580">
+        <v>60.435212660731949</v>
+      </c>
+      <c r="C8" s="2580">
+        <v>15.331355093966371</v>
+      </c>
+      <c r="D8" s="2580">
+        <v>15.5</v>
+      </c>
+      <c r="E8" s="2580">
+        <v>61.1</v>
+      </c>
+      <c r="F8" s="2580">
+        <v>24.5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2580">
+        <v>9.5452273863068466</v>
+      </c>
+      <c r="B9" s="2580">
+        <v>27.486256871564219</v>
+      </c>
+      <c r="C9" s="2580">
+        <v>62.968515742128936</v>
+      </c>
+      <c r="D9" s="2580">
+        <v>63</v>
+      </c>
+      <c r="E9" s="2580">
+        <v>27.5</v>
+      </c>
+      <c r="F9" s="2580">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2580">
+        <v>8.0726538849646818</v>
+      </c>
+      <c r="B10" s="2580">
+        <v>9.0817356205852668</v>
+      </c>
+      <c r="C10" s="2580">
+        <v>82.845610494450042</v>
+      </c>
+      <c r="D10" s="2580">
+        <v>82.1</v>
+      </c>
+      <c r="E10" s="2580">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2580">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2580">
+        <v>14.955134596211366</v>
+      </c>
+      <c r="B11" s="2580">
+        <v>63.110667996011962</v>
+      </c>
+      <c r="C11" s="2580">
+        <v>21.934197407776672</v>
+      </c>
+      <c r="D11" s="2580">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2580">
+        <v>63.3</v>
+      </c>
+      <c r="F11" s="2580">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2580">
+        <v>18.245264207377868</v>
+      </c>
+      <c r="B12" s="2580">
+        <v>64.307078763708873</v>
+      </c>
+      <c r="C12" s="2580">
+        <v>17.447657028913262</v>
+      </c>
+      <c r="D12" s="2580">
+        <v>17.5</v>
+      </c>
+      <c r="E12" s="2580">
+        <v>64.5</v>
+      </c>
+      <c r="F12" s="2580">
+        <v>18.3</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2580">
+        <v>10.079840319361278</v>
+      </c>
+      <c r="B13" s="2580">
+        <v>17.964071856287426</v>
+      </c>
+      <c r="C13" s="2580">
+        <v>71.9560878243513</v>
+      </c>
+      <c r="D13" s="2580">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="E13" s="2580">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2580">
+        <v>10.1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2580">
+        <v>22.791164658634539</v>
+      </c>
+      <c r="B14" s="2580">
+        <v>64.056224899598391</v>
+      </c>
+      <c r="C14" s="2580">
+        <v>13.152610441767068</v>
+      </c>
+      <c r="D14" s="2580">
+        <v>13.1</v>
+      </c>
+      <c r="E14" s="2580">
+        <v>63.8</v>
+      </c>
+      <c r="F14" s="2580">
+        <v>22.7</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2580">
+        <v>4.6329723225030088</v>
+      </c>
+      <c r="B15" s="2580">
+        <v>6.4179703168872848</v>
+      </c>
+      <c r="C15" s="2580">
+        <v>88.949057360609714</v>
+      </c>
+      <c r="D15" s="2580">
+        <v>88.7</v>
+      </c>
+      <c r="E15" s="2580">
+        <v>6.4</v>
+      </c>
+      <c r="F15" s="2580">
+        <v>4.62</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2580">
+        <v>16.981132075471699</v>
+      </c>
+      <c r="B16" s="2580">
+        <v>58.589870903674274</v>
+      </c>
+      <c r="C16" s="2580">
+        <v>24.42899702085402</v>
+      </c>
+      <c r="D16" s="2580">
+        <v>24.6</v>
+      </c>
+      <c r="E16" s="2580">
+        <v>59</v>
+      </c>
+      <c r="F16" s="2580">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2580">
+        <v>26.479438314944833</v>
+      </c>
+      <c r="B17" s="2580">
+        <v>31.293881644934803</v>
+      </c>
+      <c r="C17" s="2580">
+        <v>42.226680040120364</v>
+      </c>
+      <c r="D17" s="2580">
+        <v>42.1</v>
+      </c>
+      <c r="E17" s="2580">
+        <v>31.2</v>
+      </c>
+      <c r="F17" s="2580">
+        <v>26.4</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2580">
+        <v>29.761904761904763</v>
+      </c>
+      <c r="B18" s="2580">
+        <v>31.746031746031747</v>
+      </c>
+      <c r="C18" s="2580">
+        <v>38.492063492063494</v>
+      </c>
+      <c r="D18" s="2580">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E18" s="2580">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2580">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2580">
+        <v>4.7523761880940469</v>
+      </c>
+      <c r="B19" s="2580">
+        <v>8.0040020010005009</v>
+      </c>
+      <c r="C19" s="2580">
+        <v>87.243621810905466</v>
+      </c>
+      <c r="D19" s="2580">
+        <v>87.2</v>
+      </c>
+      <c r="E19" s="2580">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2580">
+        <v>4.75</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2580">
+        <v>2.1847070506454815</v>
+      </c>
+      <c r="B20" s="2580">
+        <v>2.7805362462760672</v>
+      </c>
+      <c r="C20" s="2580">
+        <v>95.034756703078443</v>
+      </c>
+      <c r="D20" s="2580">
+        <v>95.7</v>
+      </c>
+      <c r="E20" s="2580">
+        <v>2.8</v>
+      </c>
+      <c r="F20" s="2580">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2580">
+        <v>4.0040040040040035</v>
+      </c>
+      <c r="B21" s="2580">
+        <v>12.012012012012011</v>
+      </c>
+      <c r="C21" s="2580">
+        <v>83.983983983983975</v>
+      </c>
+      <c r="D21" s="2580">
+        <v>83.9</v>
+      </c>
+      <c r="E21" s="2580">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2580">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2580">
+        <v>19.641076769690926</v>
+      </c>
+      <c r="B22" s="2580">
+        <v>30.109670987038882</v>
+      </c>
+      <c r="C22" s="2580">
+        <v>50.249252243270192</v>
+      </c>
+      <c r="D22" s="2580">
+        <v>50.4</v>
+      </c>
+      <c r="E22" s="2580">
+        <v>30.2</v>
+      </c>
+      <c r="F22" s="2580">
+        <v>19.7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2580">
+        <v>21.787148594377509</v>
+      </c>
+      <c r="B23" s="2580">
+        <v>35.040160642570278</v>
+      </c>
+      <c r="C23" s="2580">
+        <v>43.172690763052209</v>
+      </c>
+      <c r="D23" s="2580">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2580">
+        <v>34.9</v>
+      </c>
+      <c r="F23" s="2580">
+        <v>21.7</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2580">
+        <v>21.26379137412237</v>
+      </c>
+      <c r="B24" s="2580">
+        <v>11.735205616850553</v>
+      </c>
+      <c r="C24" s="2580">
+        <v>67.001003009027087</v>
+      </c>
+      <c r="D24" s="2580">
+        <v>66.8</v>
+      </c>
+      <c r="E24" s="2580">
+        <v>11.7</v>
+      </c>
+      <c r="F24" s="2580">
+        <v>21.2</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2580">
+        <v>52.235772357723569</v>
+      </c>
+      <c r="B25" s="2580">
+        <v>30.487804878048777</v>
+      </c>
+      <c r="C25" s="2580">
+        <v>17.27642276422764</v>
+      </c>
+      <c r="D25" s="2580">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2580">
+        <v>30</v>
+      </c>
+      <c r="F25" s="2580">
+        <v>51.4</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2580">
+        <v>14.028056112224451</v>
+      </c>
+      <c r="B26" s="2580">
+        <v>21.042084168336675</v>
+      </c>
+      <c r="C26" s="2580">
+        <v>64.92985971943888</v>
+      </c>
+      <c r="D26" s="2580">
+        <v>64.8</v>
+      </c>
+      <c r="E26" s="2580">
+        <v>21</v>
+      </c>
+      <c r="F26" s="2580">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2580">
+        <v>7.9920079920079923</v>
+      </c>
+      <c r="B27" s="2580">
+        <v>29.570429570429575</v>
+      </c>
+      <c r="C27" s="2580">
+        <v>62.437562437562441</v>
+      </c>
+      <c r="D27" s="2580">
+        <v>62.5</v>
+      </c>
+      <c r="E27" s="2580">
+        <v>29.6</v>
+      </c>
+      <c r="F27" s="2580">
+        <v>8</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2580">
+        <v>14.098690835850956</v>
+      </c>
+      <c r="B28" s="2580">
+        <v>35.246727089627392</v>
+      </c>
+      <c r="C28" s="2580">
+        <v>50.654582074521649</v>
+      </c>
+      <c r="D28" s="2580">
+        <v>50.3</v>
+      </c>
+      <c r="E28" s="2580">
+        <v>35</v>
+      </c>
+      <c r="F28" s="2580">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2580">
+        <v>6.6</v>
+      </c>
+      <c r="B29" s="2580">
+        <v>8.4</v>
+      </c>
+      <c r="C29" s="2580">
+        <v>85</v>
+      </c>
+      <c r="D29" s="2580">
+        <v>85</v>
+      </c>
+      <c r="E29" s="2580">
+        <v>8.4</v>
+      </c>
+      <c r="F29" s="2580">
+        <v>6.6</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2580">
+        <v>50.454086781029261</v>
+      </c>
+      <c r="B30" s="2580">
+        <v>22.704339051463169</v>
+      </c>
+      <c r="C30" s="2580">
+        <v>26.84157416750757</v>
+      </c>
+      <c r="D30" s="2580">
+        <v>26.6</v>
+      </c>
+      <c r="E30" s="2580">
+        <v>22.5</v>
+      </c>
+      <c r="F30" s="2580">
+        <v>50</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2580">
+        <v>54.024144869215291</v>
+      </c>
+      <c r="B31" s="2580">
+        <v>29.47686116700201</v>
+      </c>
+      <c r="C31" s="2580">
+        <v>16.498993963782695</v>
+      </c>
+      <c r="D31" s="2580">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E31" s="2580">
+        <v>29.3</v>
+      </c>
+      <c r="F31" s="2580">
+        <v>53.7</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2580">
+        <v>52.261306532663312</v>
+      </c>
+      <c r="B32" s="2580">
+        <v>31.658291457286431</v>
+      </c>
+      <c r="C32" s="2580">
+        <v>16.08040201005025</v>
+      </c>
+      <c r="D32" s="2580">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2580">
+        <v>31.5</v>
+      </c>
+      <c r="F32" s="2580">
+        <v>52</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2580">
+        <v>25.722831505483551</v>
+      </c>
+      <c r="B33" s="2580">
+        <v>19.541375872382854</v>
+      </c>
+      <c r="C33" s="2580">
+        <v>54.735792622133602</v>
+      </c>
+      <c r="D33" s="2580">
+        <v>54.9</v>
+      </c>
+      <c r="E33" s="2580">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F33" s="2580">
+        <v>25.8</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2580">
+        <v>30.211480362537763</v>
+      </c>
+      <c r="B34" s="2580">
+        <v>48.841893252769381</v>
+      </c>
+      <c r="C34" s="2580">
+        <v>20.946626384692852</v>
+      </c>
+      <c r="D34" s="2580">
+        <v>20.8</v>
+      </c>
+      <c r="E34" s="2580">
+        <v>48.5</v>
+      </c>
+      <c r="F34" s="2580">
+        <v>30</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2580">
+        <v>8.9463220675944335</v>
+      </c>
+      <c r="B35" s="2580">
+        <v>8.9463220675944335</v>
+      </c>
+      <c r="C35" s="2580">
+        <v>82.107355864811126</v>
+      </c>
+      <c r="D35" s="2580">
+        <v>82.6</v>
+      </c>
+      <c r="E35" s="2580">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2580">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2580">
+        <v>35.175879396984925</v>
+      </c>
+      <c r="B36" s="2580">
+        <v>28.844221105527634</v>
+      </c>
+      <c r="C36" s="2580">
+        <v>35.97989949748743</v>
+      </c>
+      <c r="D36" s="2580">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="E36" s="2580">
+        <v>28.7</v>
+      </c>
+      <c r="F36" s="2580">
+        <v>35</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2580">
+        <v>33.696729435084237</v>
+      </c>
+      <c r="B37" s="2580">
+        <v>49.157581764122888</v>
+      </c>
+      <c r="C37" s="2580">
+        <v>17.145688800792865</v>
+      </c>
+      <c r="D37" s="2580">
+        <v>17.3</v>
+      </c>
+      <c r="E37" s="2580">
+        <v>49.6</v>
+      </c>
+      <c r="F37" s="2580">
+        <v>34</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2580">
+        <v>35.984095427435392</v>
+      </c>
+      <c r="B38" s="2580">
+        <v>28.230616302186878</v>
+      </c>
+      <c r="C38" s="2580">
+        <v>35.785288270377734</v>
+      </c>
+      <c r="D38" s="2580">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2580">
+        <v>28.4</v>
+      </c>
+      <c r="F38" s="2580">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2580">
+        <v>35.671342685370746</v>
+      </c>
+      <c r="B39" s="2580">
+        <v>51.402805611222448</v>
+      </c>
+      <c r="C39" s="2580">
+        <v>12.925851703406815</v>
+      </c>
+      <c r="D39" s="2580">
+        <v>12.9</v>
+      </c>
+      <c r="E39" s="2580">
+        <v>51.3</v>
+      </c>
+      <c r="F39" s="2580">
+        <v>35.6</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2580">
+        <v>30.382293762575458</v>
+      </c>
+      <c r="B40" s="2580">
+        <v>57.645875251509061</v>
+      </c>
+      <c r="C40" s="2580">
+        <v>11.971830985915496</v>
+      </c>
+      <c r="D40" s="2580">
+        <v>11.9</v>
+      </c>
+      <c r="E40" s="2580">
+        <v>57.3</v>
+      </c>
+      <c r="F40" s="2580">
+        <v>30.2</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2580">
+        <v>21.756487025948104</v>
+      </c>
+      <c r="B41" s="2580">
+        <v>11.177644710578841</v>
+      </c>
+      <c r="C41" s="2580">
+        <v>67.06586826347305</v>
+      </c>
+      <c r="D41" s="2580">
+        <v>67.2</v>
+      </c>
+      <c r="E41" s="2580">
+        <v>11.2</v>
+      </c>
+      <c r="F41" s="2580">
+        <v>21.8</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2580">
+        <v>29.713114754098363</v>
+      </c>
+      <c r="B42" s="2580">
+        <v>58.913934426229517</v>
+      </c>
+      <c r="C42" s="2580">
+        <v>11.372950819672132</v>
+      </c>
+      <c r="D42" s="2580">
+        <v>11.1</v>
+      </c>
+      <c r="E42" s="2580">
+        <v>57.5</v>
+      </c>
+      <c r="F42" s="2580">
+        <v>29</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2580">
+        <v>29.63330029732408</v>
+      </c>
+      <c r="B43" s="2580">
+        <v>55.500495540138743</v>
+      </c>
+      <c r="C43" s="2580">
+        <v>14.866204162537164</v>
+      </c>
+      <c r="D43" s="2580">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2580">
+        <v>56</v>
+      </c>
+      <c r="F43" s="2580">
+        <v>29.9</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2580">
+        <v>4.7952047952047954</v>
+      </c>
+      <c r="B44" s="2580">
+        <v>7.2927072927072931</v>
+      </c>
+      <c r="C44" s="2580">
+        <v>87.912087912087912</v>
+      </c>
+      <c r="D44" s="2580">
+        <v>88</v>
+      </c>
+      <c r="E44" s="2580">
+        <v>7.3</v>
+      </c>
+      <c r="F44" s="2580">
+        <v>4.8</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2580">
+        <v>29.789368104312938</v>
+      </c>
+      <c r="B45" s="2580">
+        <v>55.867602808425282</v>
+      </c>
+      <c r="C45" s="2580">
+        <v>14.343029087261787</v>
+      </c>
+      <c r="D45" s="2580">
+        <v>14.3</v>
+      </c>
+      <c r="E45" s="2580">
+        <v>55.7</v>
+      </c>
+      <c r="F45" s="2580">
+        <v>29.7</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2580">
+        <v>50.704225352112672</v>
+      </c>
+      <c r="B46" s="2580">
+        <v>31.187122736418509</v>
+      </c>
+      <c r="C46" s="2580">
+        <v>18.108651911468812</v>
+      </c>
+      <c r="D46" s="2580">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2580">
+        <v>31</v>
+      </c>
+      <c r="F46" s="2580">
+        <v>50.4</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2580">
+        <v>53.137651821862349</v>
+      </c>
+      <c r="B47" s="2580">
+        <v>30.668016194331983</v>
+      </c>
+      <c r="C47" s="2580">
+        <v>16.194331983805668</v>
+      </c>
+      <c r="D47" s="2580">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2580">
+        <v>30.3</v>
+      </c>
+      <c r="F47" s="2580">
+        <v>52.5</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2580">
+        <v>28.109696376101862</v>
+      </c>
+      <c r="B48" s="2580">
+        <v>43.095004897159654</v>
+      </c>
+      <c r="C48" s="2580">
+        <v>28.795298726738494</v>
+      </c>
+      <c r="D48" s="2580">
+        <v>29.4</v>
+      </c>
+      <c r="E48" s="2580">
+        <v>44</v>
+      </c>
+      <c r="F48" s="2580">
+        <v>28.7</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2580">
+        <v>4.9554013875123886</v>
+      </c>
+      <c r="B49" s="2580">
+        <v>3.8652130822596629</v>
+      </c>
+      <c r="C49" s="2580">
+        <v>91.179385530227947</v>
+      </c>
+      <c r="D49" s="2580">
+        <v>92</v>
+      </c>
+      <c r="E49" s="2580">
+        <v>3.9</v>
+      </c>
+      <c r="F49" s="2580">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2580">
+        <v>29.37062937062937</v>
+      </c>
+      <c r="B50" s="2580">
+        <v>41.658341658341662</v>
+      </c>
+      <c r="C50" s="2580">
+        <v>28.971028971028971</v>
+      </c>
+      <c r="D50" s="2580">
+        <v>29</v>
+      </c>
+      <c r="E50" s="2580">
+        <v>41.7</v>
+      </c>
+      <c r="F50" s="2580">
+        <v>29.4</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2580">
+        <v>11.553784860557768</v>
+      </c>
+      <c r="B51" s="2580">
+        <v>50.398406374501988</v>
+      </c>
+      <c r="C51" s="2580">
+        <v>38.047808764940235</v>
+      </c>
+      <c r="D51" s="2580">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E51" s="2580">
+        <v>50.6</v>
+      </c>
+      <c r="F51" s="2580">
+        <v>11.6</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2580">
+        <v>6.1220413462498753</v>
+      </c>
+      <c r="B52" s="2580">
+        <v>17.477279536602417</v>
+      </c>
+      <c r="C52" s="2580">
+        <v>76.400679117147718</v>
+      </c>
+      <c r="D52" s="2580">
+        <v>76.5</v>
+      </c>
+      <c r="E52" s="2580">
+        <v>17.5</v>
+      </c>
+      <c r="F52" s="2580">
+        <v>6.13</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2580">
+        <v>4.9751243781094532</v>
+      </c>
+      <c r="B53" s="2580">
+        <v>21.890547263681594</v>
+      </c>
+      <c r="C53" s="2580">
+        <v>73.134328358208961</v>
+      </c>
+      <c r="D53" s="2580">
+        <v>73.5</v>
+      </c>
+      <c r="E53" s="2580">
+        <v>22</v>
+      </c>
+      <c r="F53" s="2580">
+        <v>5</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2580">
+        <v>10.030090270812437</v>
+      </c>
+      <c r="B54" s="2580">
+        <v>33.801404212637919</v>
+      </c>
+      <c r="C54" s="2580">
+        <v>56.168505516549651</v>
+      </c>
+      <c r="D54" s="2580">
+        <v>56</v>
+      </c>
+      <c r="E54" s="2580">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="F54" s="2580">
+        <v>10</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2580">
+        <v>17.119838872104733</v>
+      </c>
+      <c r="B55" s="2580">
+        <v>38.670694864048336</v>
+      </c>
+      <c r="C55" s="2580">
+        <v>44.209466263846927</v>
+      </c>
+      <c r="D55" s="2580">
+        <v>43.9</v>
+      </c>
+      <c r="E55" s="2580">
+        <v>38.4</v>
+      </c>
+      <c r="F55" s="2580">
+        <v>17</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2580">
+        <v>51.832993890020362</v>
+      </c>
+      <c r="B56" s="2580">
+        <v>29.837067209775967</v>
+      </c>
+      <c r="C56" s="2580">
+        <v>18.329938900203665</v>
+      </c>
+      <c r="D56" s="2580">
+        <v>18</v>
+      </c>
+      <c r="E56" s="2580">
+        <v>29.3</v>
+      </c>
+      <c r="F56" s="2580">
+        <v>50.9</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2580">
+        <v>21.449851042701091</v>
+      </c>
+      <c r="B57" s="2580">
+        <v>15.392254220456801</v>
+      </c>
+      <c r="C57" s="2580">
+        <v>63.157894736842103</v>
+      </c>
+      <c r="D57" s="2580">
+        <v>63.6</v>
+      </c>
+      <c r="E57" s="2580">
+        <v>15.5</v>
+      </c>
+      <c r="F57" s="2580">
+        <v>21.6</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2580">
+        <v>2.0202020202020203</v>
+      </c>
+      <c r="B58" s="2580">
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="C58" s="2580">
+        <v>94.949494949494962</v>
+      </c>
+      <c r="D58" s="2580">
+        <v>94</v>
+      </c>
+      <c r="E58" s="2580">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2580">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2580">
+        <v>26.043737574552683</v>
+      </c>
+      <c r="B59" s="2580">
+        <v>19.284294234592444</v>
+      </c>
+      <c r="C59" s="2580">
+        <v>54.671968190854869</v>
+      </c>
+      <c r="D59" s="2580">
+        <v>55</v>
+      </c>
+      <c r="E59" s="2580">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F59" s="2580">
+        <v>26.2</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="2580">
+        <v>1.9980019980019978</v>
+      </c>
+      <c r="B60" s="2580">
+        <v>2.197802197802198</v>
+      </c>
+      <c r="C60" s="2580">
+        <v>95.8041958041958</v>
+      </c>
+      <c r="D60" s="2580">
+        <v>95.9</v>
+      </c>
+      <c r="E60" s="2580">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F60" s="2580">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2580">
+        <v>20.48929663608563</v>
+      </c>
+      <c r="B61" s="2580">
+        <v>15.290519877675843</v>
+      </c>
+      <c r="C61" s="2580">
+        <v>64.22018348623854</v>
+      </c>
+      <c r="D61" s="2580">
+        <v>63</v>
+      </c>
+      <c r="E61" s="2580">
+        <v>15</v>
+      </c>
+      <c r="F61" s="2580">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2580">
+        <v>55.034895314057827</v>
+      </c>
+      <c r="B62" s="2580">
+        <v>28.51445663010967</v>
+      </c>
+      <c r="C62" s="2580">
+        <v>16.450648055832502</v>
+      </c>
+      <c r="D62" s="2580">
+        <v>16.5</v>
+      </c>
+      <c r="E62" s="2580">
+        <v>28.6</v>
+      </c>
+      <c r="F62" s="2580">
+        <v>55.2</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2580">
+        <v>29.012961116650054</v>
+      </c>
+      <c r="B63" s="2580">
+        <v>24.127617148554336</v>
+      </c>
+      <c r="C63" s="2580">
+        <v>46.859421734795617</v>
+      </c>
+      <c r="D63" s="2580">
+        <v>47</v>
+      </c>
+      <c r="E63" s="2580">
+        <v>24.2</v>
+      </c>
+      <c r="F63" s="2580">
+        <v>29.1</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2580">
+        <v>31.542968749999996</v>
+      </c>
+      <c r="B64" s="2580">
+        <v>20.60546875</v>
+      </c>
+      <c r="C64" s="2580">
+        <v>47.8515625</v>
+      </c>
+      <c r="D64" s="2580">
+        <v>49</v>
+      </c>
+      <c r="E64" s="2580">
+        <v>21.1</v>
+      </c>
+      <c r="F64" s="2580">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="2580">
+        <v>54.294478527607367</v>
+      </c>
+      <c r="B65" s="2580">
+        <v>38.854805725971374</v>
+      </c>
+      <c r="C65" s="2580">
+        <v>6.850715746421268</v>
+      </c>
+      <c r="D65" s="2580">
+        <v>6.7</v>
+      </c>
+      <c r="E65" s="2580">
+        <v>38</v>
+      </c>
+      <c r="F65" s="2580">
+        <v>53.1</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="2580">
+        <v>8.6629944917376047</v>
+      </c>
+      <c r="B66" s="2580">
+        <v>54.28142213319979</v>
+      </c>
+      <c r="C66" s="2580">
+        <v>37.055583375062589</v>
+      </c>
+      <c r="D66" s="2580">
+        <v>37</v>
+      </c>
+      <c r="E66" s="2580">
+        <v>54.2</v>
+      </c>
+      <c r="F66" s="2580">
+        <v>8.65</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="2580">
+        <v>5.5226824457593677</v>
+      </c>
+      <c r="B67" s="2580">
+        <v>12.721893491124259</v>
+      </c>
+      <c r="C67" s="2580">
+        <v>81.755424063116365</v>
+      </c>
+      <c r="D67" s="2580">
+        <v>82.9</v>
+      </c>
+      <c r="E67" s="2580">
+        <v>12.9</v>
+      </c>
+      <c r="F67" s="2580">
+        <v>5.6</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2580">
+        <v>4.2095790420957906</v>
+      </c>
+      <c r="B68" s="2580">
+        <v>17.498250174982502</v>
+      </c>
+      <c r="C68" s="2580">
+        <v>78.292170782921715</v>
+      </c>
+      <c r="D68" s="2580">
+        <v>78.3</v>
+      </c>
+      <c r="E68" s="2580">
+        <v>17.5</v>
+      </c>
+      <c r="F68" s="2580">
+        <v>4.21</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="2580">
+        <v>11.84738955823293</v>
+      </c>
+      <c r="B69" s="2580">
+        <v>33.232931726907623</v>
+      </c>
+      <c r="C69" s="2580">
+        <v>54.91967871485943</v>
+      </c>
+      <c r="D69" s="2580">
+        <v>54.7</v>
+      </c>
+      <c r="E69" s="2580">
+        <v>33.1</v>
+      </c>
+      <c r="F69" s="2580">
+        <v>11.8</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="2580">
+        <v>16.701030927835049</v>
+      </c>
+      <c r="B70" s="2580">
+        <v>31.649484536082468</v>
+      </c>
+      <c r="C70" s="2580">
+        <v>51.649484536082468</v>
+      </c>
+      <c r="D70" s="2580">
+        <v>50.1</v>
+      </c>
+      <c r="E70" s="2580">
+        <v>30.7</v>
+      </c>
+      <c r="F70" s="2580">
+        <v>16.2</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="2580">
+        <v>17.8</v>
+      </c>
+      <c r="B71" s="2580">
+        <v>29.2</v>
+      </c>
+      <c r="C71" s="2580">
+        <v>53</v>
+      </c>
+      <c r="D71" s="2580">
+        <v>53</v>
+      </c>
+      <c r="E71" s="2580">
+        <v>29.2</v>
+      </c>
+      <c r="F71" s="2580">
+        <v>17.8</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="2580">
+        <v>26</v>
+      </c>
+      <c r="B72" s="2580">
+        <v>64</v>
+      </c>
+      <c r="C72" s="2580">
+        <v>10</v>
+      </c>
+      <c r="D72" s="2580">
+        <v>10</v>
+      </c>
+      <c r="E72" s="2580">
+        <v>64</v>
+      </c>
+      <c r="F72" s="2580">
+        <v>26</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="2580">
+        <v>10.159362549800795</v>
+      </c>
+      <c r="B73" s="2580">
+        <v>27.888446215139439</v>
+      </c>
+      <c r="C73" s="2580">
+        <v>61.952191235059757</v>
+      </c>
+      <c r="D73" s="2580">
+        <v>62.2</v>
+      </c>
+      <c r="E73" s="2580">
+        <v>28</v>
+      </c>
+      <c r="F73" s="2580">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="2580">
+        <v>9.9800399201596797</v>
+      </c>
+      <c r="B74" s="2580">
+        <v>7.1856287425149699</v>
+      </c>
+      <c r="C74" s="2580">
+        <v>82.834331337325338</v>
+      </c>
+      <c r="D74" s="2580">
+        <v>83</v>
+      </c>
+      <c r="E74" s="2580">
+        <v>7.2</v>
+      </c>
+      <c r="F74" s="2580">
+        <v>10</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="2580">
+        <v>16.032064128256515</v>
+      </c>
+      <c r="B75" s="2580">
+        <v>68.136272545090193</v>
+      </c>
+      <c r="C75" s="2580">
+        <v>15.83166332665331</v>
+      </c>
+      <c r="D75" s="2580">
+        <v>15.8</v>
+      </c>
+      <c r="E75" s="2580">
+        <v>68</v>
+      </c>
+      <c r="F75" s="2580">
+        <v>16</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="2580">
+        <v>15.2</v>
+      </c>
+      <c r="B76" s="2580">
+        <v>69.8</v>
+      </c>
+      <c r="C76" s="2580">
+        <v>15</v>
+      </c>
+      <c r="D76" s="2580">
+        <v>15</v>
+      </c>
+      <c r="E76" s="2580">
+        <v>69.8</v>
+      </c>
+      <c r="F76" s="2580">
+        <v>15.2</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="2580">
+        <v>8.2733812949640289</v>
+      </c>
+      <c r="B77" s="2580">
+        <v>17.985611510791369</v>
+      </c>
+      <c r="C77" s="2580">
+        <v>73.741007194244602</v>
+      </c>
+      <c r="D77" s="2580">
+        <v>73.8</v>
+      </c>
+      <c r="E77" s="2580">
+        <v>18</v>
+      </c>
+      <c r="F77" s="2580">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="2580">
+        <v>19.807923169267706</v>
+      </c>
+      <c r="B78" s="2580">
+        <v>72.028811524609836</v>
+      </c>
+      <c r="C78" s="2580">
+        <v>8.1632653061224492</v>
+      </c>
+      <c r="D78" s="2580">
+        <v>8.16</v>
+      </c>
+      <c r="E78" s="2580">
+        <v>72</v>
+      </c>
+      <c r="F78" s="2580">
+        <v>19.8</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="2580">
+        <v>3.3930537483735361</v>
+      </c>
+      <c r="B79" s="2580">
+        <v>7.3265939345410871</v>
+      </c>
+      <c r="C79" s="2580">
+        <v>89.280352317085374</v>
+      </c>
+      <c r="D79" s="2580">
+        <v>89.2</v>
+      </c>
+      <c r="E79" s="2580">
+        <v>7.32</v>
+      </c>
+      <c r="F79" s="2580">
+        <v>3.39</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="2580">
+        <v>13.340020060180542</v>
+      </c>
+      <c r="B80" s="2580">
+        <v>64.694082246740223</v>
+      </c>
+      <c r="C80" s="2580">
+        <v>21.965897693079235</v>
+      </c>
+      <c r="D80" s="2580">
+        <v>21.9</v>
+      </c>
+      <c r="E80" s="2580">
+        <v>64.5</v>
+      </c>
+      <c r="F80" s="2580">
+        <v>13.3</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="2580">
+        <v>22.554890219560878</v>
+      </c>
+      <c r="B81" s="2580">
+        <v>34.830339321357279</v>
+      </c>
+      <c r="C81" s="2580">
+        <v>42.614770459081839</v>
+      </c>
+      <c r="D81" s="2580">
+        <v>42.7</v>
+      </c>
+      <c r="E81" s="2580">
+        <v>34.9</v>
+      </c>
+      <c r="F81" s="2580">
+        <v>22.6</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="2580">
+        <v>27.678571428571427</v>
+      </c>
+      <c r="B82" s="2580">
+        <v>38.789682539682545</v>
+      </c>
+      <c r="C82" s="2580">
+        <v>33.531746031746032</v>
+      </c>
+      <c r="D82" s="2580">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E82" s="2580">
+        <v>39.1</v>
+      </c>
+      <c r="F82" s="2580">
+        <v>27.9</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="2580">
+        <v>3.6892621475704859</v>
+      </c>
+      <c r="B83" s="2580">
+        <v>8.0283943211357727</v>
+      </c>
+      <c r="C83" s="2580">
+        <v>88.282343531293733</v>
+      </c>
+      <c r="D83" s="2580">
+        <v>88.3</v>
+      </c>
+      <c r="E83" s="2580">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="F83" s="2580">
+        <v>3.69</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="2580">
+        <v>2.0233230339878401</v>
+      </c>
+      <c r="B84" s="2580">
+        <v>1.5947373666899234</v>
+      </c>
+      <c r="C84" s="2580">
+        <v>96.381939599322251</v>
+      </c>
+      <c r="D84" s="2580">
+        <v>96.7</v>
+      </c>
+      <c r="E84" s="2580">
+        <v>1.6</v>
+      </c>
+      <c r="F84" s="2580">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="2580">
+        <v>2.5</v>
+      </c>
+      <c r="B85" s="2580">
+        <v>10.3</v>
+      </c>
+      <c r="C85" s="2580">
+        <v>87.2</v>
+      </c>
+      <c r="D85" s="2580">
+        <v>87.2</v>
+      </c>
+      <c r="E85" s="2580">
+        <v>10.3</v>
+      </c>
+      <c r="F85" s="2580">
+        <v>2.5</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="2580">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="B86" s="2580">
+        <v>34.131736526946106</v>
+      </c>
+      <c r="C86" s="2580">
+        <v>49.201596806387222</v>
+      </c>
+      <c r="D86" s="2580">
+        <v>49.3</v>
+      </c>
+      <c r="E86" s="2580">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F86" s="2580">
+        <v>16.7</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="2580">
+        <v>18.946301925025331</v>
+      </c>
+      <c r="B87" s="2580">
+        <v>36.372847011144884</v>
+      </c>
+      <c r="C87" s="2580">
+        <v>44.680851063829792</v>
+      </c>
+      <c r="D87" s="2580">
+        <v>44.1</v>
+      </c>
+      <c r="E87" s="2580">
+        <v>35.9</v>
+      </c>
+      <c r="F87" s="2580">
+        <v>18.7</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="2580">
+        <v>21.479229989868287</v>
+      </c>
+      <c r="B88" s="2580">
+        <v>10.131712259371835</v>
+      </c>
+      <c r="C88" s="2580">
+        <v>68.389057750759889</v>
+      </c>
+      <c r="D88" s="2580">
+        <v>67.5</v>
+      </c>
+      <c r="E88" s="2580">
+        <v>10</v>
+      </c>
+      <c r="F88" s="2580">
+        <v>21.2</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="2580">
+        <v>50.2</v>
+      </c>
+      <c r="B89" s="2580">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C89" s="2580">
+        <v>12.5</v>
+      </c>
+      <c r="D89" s="2580">
+        <v>12.5</v>
+      </c>
+      <c r="E89" s="2580">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="F89" s="2580">
+        <v>50.2</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="2580">
+        <v>12.024048096192384</v>
+      </c>
+      <c r="B90" s="2580">
+        <v>21.943887775551097</v>
+      </c>
+      <c r="C90" s="2580">
+        <v>66.032064128256508</v>
+      </c>
+      <c r="D90" s="2580">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="E90" s="2580">
+        <v>21.9</v>
+      </c>
+      <c r="F90" s="2580">
+        <v>12</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="2580">
+        <v>7.7431633777421629</v>
+      </c>
+      <c r="B91" s="2580">
+        <v>20.134228187919465</v>
+      </c>
+      <c r="C91" s="2580">
+        <v>72.122608434338389</v>
+      </c>
+      <c r="D91" s="2580">
+        <v>72</v>
+      </c>
+      <c r="E91" s="2580">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F91" s="2580">
+        <v>7.73</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="2580">
+        <v>13.39031339031339</v>
+      </c>
+      <c r="B92" s="2580">
+        <v>32.478632478632484</v>
+      </c>
+      <c r="C92" s="2580">
+        <v>54.131054131054128</v>
+      </c>
+      <c r="D92" s="2580">
+        <v>57</v>
+      </c>
+      <c r="E92" s="2580">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F92" s="2580">
+        <v>14.1</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="2580">
+        <v>5.5445544554455441</v>
+      </c>
+      <c r="B93" s="2580">
+        <v>5.5445544554455441</v>
+      </c>
+      <c r="C93" s="2580">
+        <v>88.910891089108901</v>
+      </c>
+      <c r="D93" s="2580">
+        <v>89.8</v>
+      </c>
+      <c r="E93" s="2580">
+        <v>5.6</v>
+      </c>
+      <c r="F93" s="2580">
+        <v>5.6</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="2580">
+        <v>47.821878025169411</v>
+      </c>
+      <c r="B94" s="2580">
+        <v>30.977734753146176</v>
+      </c>
+      <c r="C94" s="2580">
+        <v>21.200387221684412</v>
+      </c>
+      <c r="D94" s="2580">
+        <v>21.9</v>
+      </c>
+      <c r="E94" s="2580">
+        <v>32</v>
+      </c>
+      <c r="F94" s="2580">
+        <v>49.4</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="2580">
+        <v>49.3</v>
+      </c>
+      <c r="B95" s="2580">
+        <v>31.8</v>
+      </c>
+      <c r="C95" s="2580">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D95" s="2580">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E95" s="2580">
+        <v>31.8</v>
+      </c>
+      <c r="F95" s="2580">
+        <v>49.3</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="2580">
+        <v>50.821256038647341</v>
+      </c>
+      <c r="B96" s="2580">
+        <v>31.884057971014492</v>
+      </c>
+      <c r="C96" s="2580">
+        <v>17.294685990338163</v>
+      </c>
+      <c r="D96" s="2580">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E96" s="2580">
+        <v>33</v>
+      </c>
+      <c r="F96" s="2580">
+        <v>52.6</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="2580">
+        <v>26.156941649899395</v>
+      </c>
+      <c r="B97" s="2580">
+        <v>18.410462776659958</v>
+      </c>
+      <c r="C97" s="2580">
+        <v>55.432595573440643</v>
+      </c>
+      <c r="D97" s="2580">
+        <v>55.1</v>
+      </c>
+      <c r="E97" s="2580">
+        <v>18.3</v>
+      </c>
+      <c r="F97" s="2580">
+        <v>26</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="2580">
+        <v>30.694980694980696</v>
+      </c>
+      <c r="B98" s="2580">
+        <v>55.115830115830121</v>
+      </c>
+      <c r="C98" s="2580">
+        <v>14.189189189189189</v>
+      </c>
+      <c r="D98" s="2580">
+        <v>14.7</v>
+      </c>
+      <c r="E98" s="2580">
+        <v>57.1</v>
+      </c>
+      <c r="F98" s="2580">
+        <v>31.8</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="2580">
+        <v>11</v>
+      </c>
+      <c r="B99" s="2580">
+        <v>7</v>
+      </c>
+      <c r="C99" s="2580">
+        <v>82</v>
+      </c>
+      <c r="D99" s="2580">
+        <v>82</v>
+      </c>
+      <c r="E99" s="2580">
+        <v>7</v>
+      </c>
+      <c r="F99" s="2580">
+        <v>11</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="2580">
+        <v>34.648700673724733</v>
+      </c>
+      <c r="B100" s="2580">
+        <v>25.98652550529355</v>
+      </c>
+      <c r="C100" s="2580">
+        <v>39.364773820981711</v>
+      </c>
+      <c r="D100" s="2580">
+        <v>40.9</v>
+      </c>
+      <c r="E100" s="2580">
+        <v>27</v>
+      </c>
+      <c r="F100" s="2580">
+        <v>36</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="2580">
+        <v>37.278657968313141</v>
+      </c>
+      <c r="B101" s="2580">
+        <v>44.734389561975775</v>
+      </c>
+      <c r="C101" s="2580">
+        <v>17.986952469711092</v>
+      </c>
+      <c r="D101" s="2580">
+        <v>19.3</v>
+      </c>
+      <c r="E101" s="2580">
+        <v>48</v>
+      </c>
+      <c r="F101" s="2580">
+        <v>40</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="2580">
+        <v>31.454918032786889</v>
+      </c>
+      <c r="B102" s="2580">
+        <v>31.659836065573774</v>
+      </c>
+      <c r="C102" s="2580">
+        <v>36.885245901639351</v>
+      </c>
+      <c r="D102" s="2580">
+        <v>36</v>
+      </c>
+      <c r="E102" s="2580">
+        <v>30.9</v>
+      </c>
+      <c r="F102" s="2580">
+        <v>30.7</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="2580">
+        <v>36.666666666666671</v>
+      </c>
+      <c r="B103" s="2580">
+        <v>59.166666666666671</v>
+      </c>
+      <c r="C103" s="2580">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D103" s="2580">
+        <v>4</v>
+      </c>
+      <c r="E103" s="2580">
+        <v>56.8</v>
+      </c>
+      <c r="F103" s="2580">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="2580">
+        <v>31.609775802868104</v>
+      </c>
+      <c r="B104" s="2580">
+        <v>65.037366188648747</v>
+      </c>
+      <c r="C104" s="2580">
+        <v>3.3528580084831341</v>
+      </c>
+      <c r="D104" s="2580">
+        <v>3.32</v>
+      </c>
+      <c r="E104" s="2580">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="F104" s="2580">
+        <v>31.3</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="2580">
+        <v>21.643286573146291</v>
+      </c>
+      <c r="B105" s="2580">
+        <v>11.523046092184368</v>
+      </c>
+      <c r="C105" s="2580">
+        <v>66.833667334669329</v>
+      </c>
+      <c r="D105" s="2580">
+        <v>66.7</v>
+      </c>
+      <c r="E105" s="2580">
+        <v>11.5</v>
+      </c>
+      <c r="F105" s="2580">
+        <v>21.6</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="2580">
+        <v>31.01807802093245</v>
+      </c>
+      <c r="B106" s="2580">
+        <v>60.418648905803998</v>
+      </c>
+      <c r="C106" s="2580">
+        <v>8.5632730732635594</v>
+      </c>
+      <c r="D106" s="2580">
+        <v>9</v>
+      </c>
+      <c r="E106" s="2580">
+        <v>63.5</v>
+      </c>
+      <c r="F106" s="2580">
+        <v>32.6</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="2580">
+        <v>26.886556721639177</v>
+      </c>
+      <c r="B107" s="2580">
+        <v>66.466766616691658</v>
+      </c>
+      <c r="C107" s="2580">
+        <v>6.6466766616691659</v>
+      </c>
+      <c r="D107" s="2580">
+        <v>6.65</v>
+      </c>
+      <c r="E107" s="2580">
+        <v>66.5</v>
+      </c>
+      <c r="F107" s="2580">
+        <v>26.9</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="2580">
+        <v>3.5982008995502248</v>
+      </c>
+      <c r="B108" s="2580">
+        <v>7.4462768615692152</v>
+      </c>
+      <c r="C108" s="2580">
+        <v>88.955522238880562</v>
+      </c>
+      <c r="D108" s="2580">
+        <v>89</v>
+      </c>
+      <c r="E108" s="2580">
+        <v>7.45</v>
+      </c>
+      <c r="F108" s="2580">
+        <v>3.6</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="2580">
+        <v>32.542579075425792</v>
+      </c>
+      <c r="B109" s="2580">
+        <v>65.085158150851584</v>
+      </c>
+      <c r="C109" s="2580">
+        <v>2.3722627737226274</v>
+      </c>
+      <c r="D109" s="2580">
+        <v>2.34</v>
+      </c>
+      <c r="E109" s="2580">
+        <v>64.2</v>
+      </c>
+      <c r="F109" s="2580">
+        <v>32.1</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="2580">
+        <v>33.231675255021564</v>
+      </c>
+      <c r="B110" s="2580">
+        <v>60.36386581133663</v>
+      </c>
+      <c r="C110" s="2580">
+        <v>6.4044589336418127</v>
+      </c>
+      <c r="D110" s="2580">
+        <v>6.09</v>
+      </c>
+      <c r="E110" s="2580">
+        <v>57.4</v>
+      </c>
+      <c r="F110" s="2580">
+        <v>31.6</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="2580">
+        <v>54.154154154154149</v>
+      </c>
+      <c r="B111" s="2580">
+        <v>32.832832832832828</v>
+      </c>
+      <c r="C111" s="2580">
+        <v>13.013013013013012</v>
+      </c>
+      <c r="D111" s="2580">
+        <v>13</v>
+      </c>
+      <c r="E111" s="2580">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F111" s="2580">
+        <v>54.1</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="2580">
+        <v>29.399585921325052</v>
+      </c>
+      <c r="B112" s="2580">
+        <v>46.997929606625256</v>
+      </c>
+      <c r="C112" s="2580">
+        <v>23.602484472049692</v>
+      </c>
+      <c r="D112" s="2580">
+        <v>22.8</v>
+      </c>
+      <c r="E112" s="2580">
+        <v>45.4</v>
+      </c>
+      <c r="F112" s="2580">
+        <v>28.4</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="2580">
+        <v>3.8540385403854032</v>
+      </c>
+      <c r="B113" s="2580">
+        <v>2.0500205002050018</v>
+      </c>
+      <c r="C113" s="2580">
+        <v>94.095940959409575</v>
+      </c>
+      <c r="D113" s="2580">
+        <v>91.8</v>
+      </c>
+      <c r="E113" s="2580">
+        <v>2</v>
+      </c>
+      <c r="F113" s="2580">
+        <v>3.76</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="2580">
+        <v>27.154308617234474</v>
+      </c>
+      <c r="B114" s="2580">
+        <v>45.390781563126254</v>
+      </c>
+      <c r="C114" s="2580">
+        <v>27.45490981963928</v>
+      </c>
+      <c r="D114" s="2580">
+        <v>27.4</v>
+      </c>
+      <c r="E114" s="2580">
+        <v>45.3</v>
+      </c>
+      <c r="F114" s="2580">
+        <v>27.1</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="2580">
+        <v>8.6629944917376047</v>
+      </c>
+      <c r="B115" s="2580">
+        <v>54.28142213319979</v>
+      </c>
+      <c r="C115" s="2580">
+        <v>37.055583375062589</v>
+      </c>
+      <c r="D115" s="2580">
+        <v>37</v>
+      </c>
+      <c r="E115" s="2580">
+        <v>54.2</v>
+      </c>
+      <c r="F115" s="2580">
+        <v>8.65</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="2580">
+        <v>5.5226824457593677</v>
+      </c>
+      <c r="B116" s="2580">
+        <v>12.721893491124259</v>
+      </c>
+      <c r="C116" s="2580">
+        <v>81.755424063116365</v>
+      </c>
+      <c r="D116" s="2580">
+        <v>82.9</v>
+      </c>
+      <c r="E116" s="2580">
+        <v>12.9</v>
+      </c>
+      <c r="F116" s="2580">
+        <v>5.6</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="2580">
+        <v>4.2095790420957906</v>
+      </c>
+      <c r="B117" s="2580">
+        <v>17.498250174982502</v>
+      </c>
+      <c r="C117" s="2580">
+        <v>78.292170782921715</v>
+      </c>
+      <c r="D117" s="2580">
+        <v>78.3</v>
+      </c>
+      <c r="E117" s="2580">
+        <v>17.5</v>
+      </c>
+      <c r="F117" s="2580">
+        <v>4.21</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="2580">
+        <v>11.84738955823293</v>
+      </c>
+      <c r="B118" s="2580">
+        <v>33.232931726907623</v>
+      </c>
+      <c r="C118" s="2580">
+        <v>54.91967871485943</v>
+      </c>
+      <c r="D118" s="2580">
+        <v>54.7</v>
+      </c>
+      <c r="E118" s="2580">
+        <v>33.1</v>
+      </c>
+      <c r="F118" s="2580">
+        <v>11.8</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="2580">
+        <v>16.701030927835049</v>
+      </c>
+      <c r="B119" s="2580">
+        <v>31.649484536082468</v>
+      </c>
+      <c r="C119" s="2580">
+        <v>51.649484536082468</v>
+      </c>
+      <c r="D119" s="2580">
+        <v>50.1</v>
+      </c>
+      <c r="E119" s="2580">
+        <v>30.7</v>
+      </c>
+      <c r="F119" s="2580">
+        <v>16.2</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="2580">
+        <v>48.68292682926829</v>
+      </c>
+      <c r="B120" s="2580">
+        <v>32.195121951219512</v>
+      </c>
+      <c r="C120" s="2580">
+        <v>19.121951219512194</v>
+      </c>
+      <c r="D120" s="2580">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E120" s="2580">
+        <v>33</v>
+      </c>
+      <c r="F120" s="2580">
+        <v>49.9</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="2580">
+        <v>31.573604060913706</v>
+      </c>
+      <c r="B121" s="2580">
+        <v>18.071065989847714</v>
+      </c>
+      <c r="C121" s="2580">
+        <v>50.35532994923858</v>
+      </c>
+      <c r="D121" s="2580">
+        <v>49.6</v>
+      </c>
+      <c r="E121" s="2580">
+        <v>17.8</v>
+      </c>
+      <c r="F121" s="2580">
+        <v>31.1</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="2580">
+        <v>31.362725450901809</v>
+      </c>
+      <c r="B122" s="2580">
+        <v>18.537074148296597</v>
+      </c>
+      <c r="C122" s="2580">
+        <v>50.100200400801612</v>
+      </c>
+      <c r="D122" s="2580">
+        <v>50</v>
+      </c>
+      <c r="E122" s="2580">
+        <v>18.5</v>
+      </c>
+      <c r="F122" s="2580">
+        <v>31.3</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="2580">
+        <v>45.273631840796021</v>
+      </c>
+      <c r="B123" s="2580">
+        <v>21.890547263681594</v>
+      </c>
+      <c r="C123" s="2580">
+        <v>32.835820895522389</v>
+      </c>
+      <c r="D123" s="2580">
+        <v>33</v>
+      </c>
+      <c r="E123" s="2580">
+        <v>22</v>
+      </c>
+      <c r="F123" s="2580">
+        <v>45.5</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H122"/>
@@ -45660,7 +50786,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I66" sqref="I66:I71"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45671,6 +50797,7 @@
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -47476,6 +52603,7 @@
       <c r="G67" s="2249">
         <v>3.2</v>
       </c>
+      <c r="H67" s="2249"/>
       <c r="I67">
         <f t="shared" si="0"/>
         <v>95.2</v>
@@ -47503,6 +52631,7 @@
       <c r="G68" s="2249">
         <v>5.8</v>
       </c>
+      <c r="H68" s="2249"/>
       <c r="I68">
         <f t="shared" ref="I68:I71" si="1">B68+D68+F68</f>
         <v>103.70000000000002</v>
@@ -47530,6 +52659,7 @@
       <c r="G69" s="2249">
         <v>2.9</v>
       </c>
+      <c r="H69" s="2249"/>
       <c r="I69">
         <f t="shared" si="1"/>
         <v>104.30000000000001</v>
@@ -47557,6 +52687,7 @@
       <c r="G70" s="2249">
         <v>3.8</v>
       </c>
+      <c r="H70" s="2249"/>
       <c r="I70">
         <f t="shared" si="1"/>
         <v>94.4</v>
@@ -47584,6 +52715,7 @@
       <c r="G71" s="2249">
         <v>1.8</v>
       </c>
+      <c r="H71" s="2249"/>
       <c r="I71">
         <f t="shared" si="1"/>
         <v>99.7</v>
@@ -47597,87 +52729,87 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H864"/>
+  <dimension ref="A1:G864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R880" sqref="R880"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="443" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="442" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="451" t="s">
+      <c r="B1" s="2254" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="451" t="s">
+      <c r="C1" s="2254" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="451" t="s">
+      <c r="D1" s="2254" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="451" t="s">
+      <c r="E1" s="2254" t="s">
         <v>373</v>
       </c>
-      <c r="F1" s="451" t="s">
+      <c r="F1" s="2254" t="s">
         <v>374</v>
       </c>
-      <c r="G1" s="451" t="s">
+      <c r="G1" s="2254" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="2245" t="s">
+      <c r="B2" s="2578" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2245" t="s">
+      <c r="C2" s="2578" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="2245" t="s">
+      <c r="D2" s="2578" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="2245" t="s">
+      <c r="E2" s="2578" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2245" t="s">
+      <c r="F2" s="2578" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="2245" t="s">
+      <c r="G2" s="2578" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="2245" t="s">
+      <c r="B3" s="2578" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2245" t="s">
+      <c r="C3" s="2578" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2245" t="s">
+      <c r="D3" s="2578" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2245" t="s">
+      <c r="E3" s="2578" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2245" t="s">
+      <c r="F3" s="2578" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2245" t="s">
+      <c r="G3" s="2578" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>215</v>
       </c>
@@ -47699,11 +52831,8 @@
       <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>376</v>
       </c>
@@ -47726,7 +52855,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>377</v>
       </c>
@@ -47749,7 +52878,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>378</v>
       </c>
@@ -47772,7 +52901,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>379</v>
       </c>
@@ -47795,7 +52924,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>380</v>
       </c>
@@ -47818,7 +52947,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>381</v>
       </c>
@@ -47841,7 +52970,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>382</v>
       </c>
@@ -47864,7 +52993,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>383</v>
       </c>
@@ -47887,7 +53016,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>384</v>
       </c>
@@ -47910,7 +53039,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>385</v>
       </c>
@@ -47933,7 +53062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>215</v>
       </c>
@@ -47956,7 +53085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>386</v>
       </c>
@@ -54625,7 +59754,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="443" t="s">
-        <v>240</v>
+        <v>1999</v>
       </c>
       <c r="B318">
         <v>35</v>
@@ -54639,7 +59768,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="443" t="s">
-        <v>241</v>
+        <v>2000</v>
       </c>
       <c r="B319">
         <v>3</v>
@@ -55045,7 +60174,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="443" t="s">
-        <v>273</v>
+        <v>2001</v>
       </c>
       <c r="B348">
         <v>47.8</v>
@@ -55059,7 +60188,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="443" t="s">
-        <v>274</v>
+        <v>2002</v>
       </c>
       <c r="B349">
         <v>3</v>
@@ -62273,7 +67402,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F55" sqref="A1:F55"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62285,1103 +67414,1103 @@
     <col min="7" max="7" width="9.140625" style="443"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2250" t="s">
         <v>1985</v>
       </c>
-      <c r="B1" s="2250" t="s">
+      <c r="B1" s="2251" t="s">
         <v>1986</v>
       </c>
-      <c r="C1" s="2250" t="s">
+      <c r="C1" s="2252" t="s">
         <v>1987</v>
       </c>
-      <c r="D1" s="2250" t="s">
+      <c r="D1" s="2579" t="s">
         <v>1917</v>
       </c>
-      <c r="E1" s="2250" t="s">
+      <c r="E1" s="2253" t="s">
         <v>1988</v>
       </c>
-      <c r="F1" s="2250" t="s">
+      <c r="F1" s="2254" t="s">
         <v>1989</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="2251">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2255">
         <v>11.553784860557768</v>
       </c>
-      <c r="B2" s="2251">
+      <c r="B2" s="2309">
         <v>50.398406374501988</v>
       </c>
-      <c r="C2" s="2251">
+      <c r="C2" s="2363">
         <v>38.047808764940235</v>
       </c>
-      <c r="D2" s="2252" t="s">
+      <c r="D2" s="2417" t="s">
         <v>376</v>
       </c>
-      <c r="E2" s="2252" t="s">
+      <c r="E2" s="2471" t="s">
         <v>1990</v>
       </c>
-      <c r="F2" s="2252" t="s">
+      <c r="F2" s="2525" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="2251">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2256">
         <v>6.1220413462498753</v>
       </c>
-      <c r="B3" s="2251">
+      <c r="B3" s="2310">
         <v>17.477279536602417</v>
       </c>
-      <c r="C3" s="2251">
+      <c r="C3" s="2364">
         <v>76.400679117147718</v>
       </c>
-      <c r="D3" s="2252" t="s">
+      <c r="D3" s="2418" t="s">
         <v>378</v>
       </c>
-      <c r="E3" s="2252" t="s">
+      <c r="E3" s="2472" t="s">
         <v>1991</v>
       </c>
-      <c r="F3" s="2252" t="s">
+      <c r="F3" s="2526" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="2251">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2257">
         <v>4.9751243781094532</v>
       </c>
-      <c r="B4" s="2251">
+      <c r="B4" s="2311">
         <v>21.890547263681594</v>
       </c>
-      <c r="C4" s="2251">
+      <c r="C4" s="2365">
         <v>73.134328358208961</v>
       </c>
-      <c r="D4" s="2252" t="s">
+      <c r="D4" s="2419" t="s">
         <v>380</v>
       </c>
-      <c r="E4" s="2252" t="s">
+      <c r="E4" s="2473" t="s">
         <v>1992</v>
       </c>
-      <c r="F4" s="2252" t="s">
+      <c r="F4" s="2527" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="2251">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2258">
         <v>10.030090270812437</v>
       </c>
-      <c r="B5" s="2251">
+      <c r="B5" s="2312">
         <v>33.801404212637919</v>
       </c>
-      <c r="C5" s="2251">
+      <c r="C5" s="2366">
         <v>56.168505516549651</v>
       </c>
-      <c r="D5" s="2252" t="s">
+      <c r="D5" s="2420" t="s">
         <v>382</v>
       </c>
-      <c r="E5" s="2252" t="s">
+      <c r="E5" s="2474" t="s">
         <v>1992</v>
       </c>
-      <c r="F5" s="2252" t="s">
+      <c r="F5" s="2528" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="2251">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2259">
         <v>17.119838872104733</v>
       </c>
-      <c r="B6" s="2251">
+      <c r="B6" s="2313">
         <v>38.670694864048336</v>
       </c>
-      <c r="C6" s="2251">
+      <c r="C6" s="2367">
         <v>44.209466263846927</v>
       </c>
-      <c r="D6" s="2252" t="s">
+      <c r="D6" s="2421" t="s">
         <v>384</v>
       </c>
-      <c r="E6" s="2252" t="s">
+      <c r="E6" s="2475" t="s">
         <v>1993</v>
       </c>
-      <c r="F6" s="2252" t="s">
+      <c r="F6" s="2529" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="2251">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2260">
         <v>17.588932806324109</v>
       </c>
-      <c r="B7" s="2251">
+      <c r="B7" s="2314">
         <v>30.830039525691699</v>
       </c>
-      <c r="C7" s="2251">
+      <c r="C7" s="2368">
         <v>51.581027667984188</v>
       </c>
-      <c r="D7" s="2252" t="s">
+      <c r="D7" s="2422" t="s">
         <v>386</v>
       </c>
-      <c r="E7" s="2252" t="s">
+      <c r="E7" s="2476" t="s">
         <v>1993</v>
       </c>
-      <c r="F7" s="2252" t="s">
+      <c r="F7" s="2530" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="2251">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2261">
         <v>24.233432245301682</v>
       </c>
-      <c r="B8" s="2251">
+      <c r="B8" s="2315">
         <v>60.435212660731949</v>
       </c>
-      <c r="C8" s="2251">
+      <c r="C8" s="2369">
         <v>15.331355093966371</v>
       </c>
-      <c r="D8" s="2252" t="s">
+      <c r="D8" s="2423" t="s">
         <v>388</v>
       </c>
-      <c r="E8" s="2252" t="s">
+      <c r="E8" s="2477" t="s">
         <v>1990</v>
       </c>
-      <c r="F8" s="2252" t="s">
+      <c r="F8" s="2531" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="2251">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2262">
         <v>9.5452273863068466</v>
       </c>
-      <c r="B9" s="2251">
+      <c r="B9" s="2316">
         <v>27.486256871564219</v>
       </c>
-      <c r="C9" s="2251">
+      <c r="C9" s="2370">
         <v>62.968515742128936</v>
       </c>
-      <c r="D9" s="2252" t="s">
+      <c r="D9" s="2424" t="s">
         <v>390</v>
       </c>
-      <c r="E9" s="2252" t="s">
+      <c r="E9" s="2478" t="s">
         <v>1992</v>
       </c>
-      <c r="F9" s="2252" t="s">
+      <c r="F9" s="2532" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="2251">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2263">
         <v>8.0726538849646818</v>
       </c>
-      <c r="B10" s="2251">
+      <c r="B10" s="2317">
         <v>9.0817356205852668</v>
       </c>
-      <c r="C10" s="2251">
+      <c r="C10" s="2371">
         <v>82.845610494450042</v>
       </c>
-      <c r="D10" s="2252" t="s">
+      <c r="D10" s="2425" t="s">
         <v>392</v>
       </c>
-      <c r="E10" s="2252" t="s">
+      <c r="E10" s="2479" t="s">
         <v>1991</v>
       </c>
-      <c r="F10" s="2252" t="s">
+      <c r="F10" s="2533" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="2251">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2264">
         <v>14.955134596211366</v>
       </c>
-      <c r="B11" s="2251">
+      <c r="B11" s="2318">
         <v>63.110667996011962</v>
       </c>
-      <c r="C11" s="2251">
+      <c r="C11" s="2372">
         <v>21.934197407776672</v>
       </c>
-      <c r="D11" s="2252" t="s">
+      <c r="D11" s="2426" t="s">
         <v>394</v>
       </c>
-      <c r="E11" s="2252" t="s">
+      <c r="E11" s="2480" t="s">
         <v>1990</v>
       </c>
-      <c r="F11" s="2252" t="s">
+      <c r="F11" s="2534" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="2251">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2265">
         <v>18.245264207377868</v>
       </c>
-      <c r="B12" s="2251">
+      <c r="B12" s="2319">
         <v>64.307078763708873</v>
       </c>
-      <c r="C12" s="2251">
+      <c r="C12" s="2373">
         <v>17.447657028913262</v>
       </c>
-      <c r="D12" s="2252" t="s">
+      <c r="D12" s="2427" t="s">
         <v>396</v>
       </c>
-      <c r="E12" s="2252" t="s">
+      <c r="E12" s="2481" t="s">
         <v>1990</v>
       </c>
-      <c r="F12" s="2252" t="s">
+      <c r="F12" s="2535" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="2251">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2266">
         <v>10.079840319361278</v>
       </c>
-      <c r="B13" s="2251">
+      <c r="B13" s="2320">
         <v>17.964071856287426</v>
       </c>
-      <c r="C13" s="2251">
+      <c r="C13" s="2374">
         <v>71.9560878243513</v>
       </c>
-      <c r="D13" s="2252" t="s">
+      <c r="D13" s="2428" t="s">
         <v>398</v>
       </c>
-      <c r="E13" s="2252" t="s">
+      <c r="E13" s="2482" t="s">
         <v>1992</v>
       </c>
-      <c r="F13" s="2252" t="s">
+      <c r="F13" s="2536" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="2251">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2267">
         <v>22.791164658634539</v>
       </c>
-      <c r="B14" s="2251">
+      <c r="B14" s="2321">
         <v>64.056224899598391</v>
       </c>
-      <c r="C14" s="2251">
+      <c r="C14" s="2375">
         <v>13.152610441767068</v>
       </c>
-      <c r="D14" s="2252" t="s">
+      <c r="D14" s="2429" t="s">
         <v>400</v>
       </c>
-      <c r="E14" s="2252" t="s">
+      <c r="E14" s="2483" t="s">
         <v>1990</v>
       </c>
-      <c r="F14" s="2252" t="s">
+      <c r="F14" s="2537" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="2251">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2268">
         <v>4.6329723225030088</v>
       </c>
-      <c r="B15" s="2251">
+      <c r="B15" s="2322">
         <v>6.4179703168872848</v>
       </c>
-      <c r="C15" s="2251">
+      <c r="C15" s="2376">
         <v>88.949057360609714</v>
       </c>
-      <c r="D15" s="2252" t="s">
+      <c r="D15" s="2430" t="s">
         <v>402</v>
       </c>
-      <c r="E15" s="2252" t="s">
+      <c r="E15" s="2484" t="s">
         <v>1994</v>
       </c>
-      <c r="F15" s="2252" t="s">
+      <c r="F15" s="2538" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="2251">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2269">
         <v>16.981132075471699</v>
       </c>
-      <c r="B16" s="2251">
+      <c r="B16" s="2323">
         <v>58.589870903674274</v>
       </c>
-      <c r="C16" s="2251">
+      <c r="C16" s="2377">
         <v>24.42899702085402</v>
       </c>
-      <c r="D16" s="2252" t="s">
+      <c r="D16" s="2431" t="s">
         <v>404</v>
       </c>
-      <c r="E16" s="2252" t="s">
+      <c r="E16" s="2485" t="s">
         <v>1990</v>
       </c>
-      <c r="F16" s="2252" t="s">
+      <c r="F16" s="2539" t="s">
         <v>1990</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="2251">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2270">
         <v>26.479438314944833</v>
       </c>
-      <c r="B17" s="2251">
+      <c r="B17" s="2324">
         <v>31.293881644934803</v>
       </c>
-      <c r="C17" s="2251">
+      <c r="C17" s="2378">
         <v>42.226680040120364</v>
       </c>
-      <c r="D17" s="2252" t="s">
+      <c r="D17" s="2432" t="s">
         <v>408</v>
       </c>
-      <c r="E17" s="2252" t="s">
+      <c r="E17" s="2486" t="s">
         <v>1993</v>
       </c>
-      <c r="F17" s="2252" t="s">
+      <c r="F17" s="2540" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="2251">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2271">
         <v>29.761904761904763</v>
       </c>
-      <c r="B18" s="2251">
+      <c r="B18" s="2325">
         <v>31.746031746031747</v>
       </c>
-      <c r="C18" s="2251">
+      <c r="C18" s="2379">
         <v>38.492063492063494</v>
       </c>
-      <c r="D18" s="2252" t="s">
+      <c r="D18" s="2433" t="s">
         <v>410</v>
       </c>
-      <c r="E18" s="2252" t="s">
+      <c r="E18" s="2487" t="s">
         <v>1995</v>
       </c>
-      <c r="F18" s="2252" t="s">
+      <c r="F18" s="2541" t="s">
         <v>1995</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="2251">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2272">
         <v>4.7523761880940469</v>
       </c>
-      <c r="B19" s="2251">
+      <c r="B19" s="2326">
         <v>8.0040020010005009</v>
       </c>
-      <c r="C19" s="2251">
+      <c r="C19" s="2380">
         <v>87.243621810905466</v>
       </c>
-      <c r="D19" s="2252" t="s">
+      <c r="D19" s="2434" t="s">
         <v>412</v>
       </c>
-      <c r="E19" s="2252" t="s">
+      <c r="E19" s="2488" t="s">
         <v>1991</v>
       </c>
-      <c r="F19" s="2252" t="s">
+      <c r="F19" s="2542" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="2251">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2273">
         <v>2.1847070506454815</v>
       </c>
-      <c r="B20" s="2251">
+      <c r="B20" s="2327">
         <v>2.7805362462760672</v>
       </c>
-      <c r="C20" s="2251">
+      <c r="C20" s="2381">
         <v>95.034756703078443</v>
       </c>
-      <c r="D20" s="2252" t="s">
+      <c r="D20" s="2435" t="s">
         <v>414</v>
       </c>
-      <c r="E20" s="2252" t="s">
+      <c r="E20" s="2489" t="s">
         <v>1994</v>
       </c>
-      <c r="F20" s="2252" t="s">
+      <c r="F20" s="2543" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="2251">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2274">
         <v>4.0040040040040035</v>
       </c>
-      <c r="B21" s="2251">
+      <c r="B21" s="2328">
         <v>12.012012012012011</v>
       </c>
-      <c r="C21" s="2251">
+      <c r="C21" s="2382">
         <v>83.983983983983975</v>
       </c>
-      <c r="D21" s="2252" t="s">
+      <c r="D21" s="2436" t="s">
         <v>416</v>
       </c>
-      <c r="E21" s="2252" t="s">
+      <c r="E21" s="2490" t="s">
         <v>1991</v>
       </c>
-      <c r="F21" s="2252" t="s">
+      <c r="F21" s="2544" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="2251">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2275">
         <v>19.641076769690926</v>
       </c>
-      <c r="B22" s="2251">
+      <c r="B22" s="2329">
         <v>30.109670987038882</v>
       </c>
-      <c r="C22" s="2251">
+      <c r="C22" s="2383">
         <v>50.249252243270192</v>
       </c>
-      <c r="D22" s="2252" t="s">
+      <c r="D22" s="2437" t="s">
         <v>420</v>
       </c>
-      <c r="E22" s="2252" t="s">
+      <c r="E22" s="2491" t="s">
         <v>1993</v>
       </c>
-      <c r="F22" s="2252" t="s">
+      <c r="F22" s="2545" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="2251">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2276">
         <v>21.787148594377509</v>
       </c>
-      <c r="B23" s="2251">
+      <c r="B23" s="2330">
         <v>35.040160642570278</v>
       </c>
-      <c r="C23" s="2251">
+      <c r="C23" s="2384">
         <v>43.172690763052209</v>
       </c>
-      <c r="D23" s="2252" t="s">
+      <c r="D23" s="2438" t="s">
         <v>422</v>
       </c>
-      <c r="E23" s="2252" t="s">
+      <c r="E23" s="2492" t="s">
         <v>1993</v>
       </c>
-      <c r="F23" s="2252" t="s">
+      <c r="F23" s="2546" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="2251">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2277">
         <v>21.26379137412237</v>
       </c>
-      <c r="B24" s="2251">
+      <c r="B24" s="2331">
         <v>11.735205616850553</v>
       </c>
-      <c r="C24" s="2251">
+      <c r="C24" s="2385">
         <v>67.001003009027087</v>
       </c>
-      <c r="D24" s="2252" t="s">
+      <c r="D24" s="2439" t="s">
         <v>424</v>
       </c>
-      <c r="E24" s="2252" t="s">
+      <c r="E24" s="2493" t="s">
         <v>1996</v>
       </c>
-      <c r="F24" s="2252" t="s">
+      <c r="F24" s="2547" t="s">
         <v>1996</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="2251">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2278">
         <v>52.235772357723569</v>
       </c>
-      <c r="B25" s="2251">
+      <c r="B25" s="2332">
         <v>30.487804878048777</v>
       </c>
-      <c r="C25" s="2251">
+      <c r="C25" s="2386">
         <v>17.27642276422764</v>
       </c>
-      <c r="D25" s="2252" t="s">
+      <c r="D25" s="2440" t="s">
         <v>426</v>
       </c>
-      <c r="E25" s="2252" t="s">
+      <c r="E25" s="2494" t="s">
         <v>1997</v>
       </c>
-      <c r="F25" s="2252" t="s">
+      <c r="F25" s="2548" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="2251">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2279">
         <v>14.028056112224451</v>
       </c>
-      <c r="B26" s="2251">
+      <c r="B26" s="2333">
         <v>21.042084168336675</v>
       </c>
-      <c r="C26" s="2251">
+      <c r="C26" s="2387">
         <v>64.92985971943888</v>
       </c>
-      <c r="D26" s="2252" t="s">
+      <c r="D26" s="2441" t="s">
         <v>428</v>
       </c>
-      <c r="E26" s="2252" t="s">
+      <c r="E26" s="2495" t="s">
         <v>1992</v>
       </c>
-      <c r="F26" s="2252" t="s">
+      <c r="F26" s="2549" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="2251">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2280">
         <v>7.9920079920079923</v>
       </c>
-      <c r="B27" s="2251">
+      <c r="B27" s="2334">
         <v>29.570429570429575</v>
       </c>
-      <c r="C27" s="2251">
+      <c r="C27" s="2388">
         <v>62.437562437562441</v>
       </c>
-      <c r="D27" s="2252" t="s">
+      <c r="D27" s="2442" t="s">
         <v>430</v>
       </c>
-      <c r="E27" s="2252" t="s">
+      <c r="E27" s="2496" t="s">
         <v>1992</v>
       </c>
-      <c r="F27" s="2252" t="s">
+      <c r="F27" s="2550" t="s">
         <v>1992</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="2251">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2281">
         <v>14.098690835850956</v>
       </c>
-      <c r="B28" s="2251">
+      <c r="B28" s="2335">
         <v>35.246727089627392</v>
       </c>
-      <c r="C28" s="2251">
+      <c r="C28" s="2389">
         <v>50.654582074521649</v>
       </c>
-      <c r="D28" s="2252" t="s">
+      <c r="D28" s="2443" t="s">
         <v>442</v>
       </c>
-      <c r="E28" s="2252" t="s">
+      <c r="E28" s="2497" t="s">
         <v>1993</v>
       </c>
-      <c r="F28" s="2252" t="s">
+      <c r="F28" s="2551" t="s">
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="2251">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2282">
         <v>6.6</v>
       </c>
-      <c r="B29" s="2251">
+      <c r="B29" s="2336">
         <v>8.4</v>
       </c>
-      <c r="C29" s="2251">
+      <c r="C29" s="2390">
         <v>85</v>
       </c>
-      <c r="D29" s="2252" t="s">
+      <c r="D29" s="2444" t="s">
         <v>446</v>
       </c>
-      <c r="E29" s="2252" t="s">
+      <c r="E29" s="2498" t="s">
         <v>1991</v>
       </c>
-      <c r="F29" s="2252" t="s">
+      <c r="F29" s="2552" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="2251">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2283">
         <v>50.454086781029261</v>
       </c>
-      <c r="B30" s="2251">
+      <c r="B30" s="2337">
         <v>22.704339051463169</v>
       </c>
-      <c r="C30" s="2251">
+      <c r="C30" s="2391">
         <v>26.84157416750757</v>
       </c>
-      <c r="D30" s="2252" t="s">
+      <c r="D30" s="2445" t="s">
         <v>452</v>
       </c>
-      <c r="E30" s="2252" t="s">
+      <c r="E30" s="2499" t="s">
         <v>1997</v>
       </c>
-      <c r="F30" s="2252" t="s">
+      <c r="F30" s="2553" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="2251">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2284">
         <v>54.024144869215291</v>
       </c>
-      <c r="B31" s="2251">
+      <c r="B31" s="2338">
         <v>29.47686116700201</v>
       </c>
-      <c r="C31" s="2251">
+      <c r="C31" s="2392">
         <v>16.498993963782695</v>
       </c>
-      <c r="D31" s="2252" t="s">
+      <c r="D31" s="2446" t="s">
         <v>462</v>
       </c>
-      <c r="E31" s="2252" t="s">
+      <c r="E31" s="2500" t="s">
         <v>1997</v>
       </c>
-      <c r="F31" s="2252" t="s">
+      <c r="F31" s="2554" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="2251">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2285">
         <v>52.261306532663312</v>
       </c>
-      <c r="B32" s="2251">
+      <c r="B32" s="2339">
         <v>31.658291457286431</v>
       </c>
-      <c r="C32" s="2251">
+      <c r="C32" s="2393">
         <v>16.08040201005025</v>
       </c>
-      <c r="D32" s="2252" t="s">
+      <c r="D32" s="2447" t="s">
         <v>468</v>
       </c>
-      <c r="E32" s="2252" t="s">
+      <c r="E32" s="2501" t="s">
         <v>1997</v>
       </c>
-      <c r="F32" s="2252" t="s">
+      <c r="F32" s="2555" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="2251">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2286">
         <v>25.722831505483551</v>
       </c>
-      <c r="B33" s="2251">
+      <c r="B33" s="2340">
         <v>19.541375872382854</v>
       </c>
-      <c r="C33" s="2251">
+      <c r="C33" s="2394">
         <v>54.735792622133602</v>
       </c>
-      <c r="D33" s="2252" t="s">
+      <c r="D33" s="2448" t="s">
         <v>474</v>
       </c>
-      <c r="E33" s="2252" t="s">
+      <c r="E33" s="2502" t="s">
         <v>1996</v>
       </c>
-      <c r="F33" s="2252" t="s">
+      <c r="F33" s="2556" t="s">
         <v>1996</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="2251">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2287">
         <v>30.211480362537763</v>
       </c>
-      <c r="B34" s="2251">
+      <c r="B34" s="2341">
         <v>48.841893252769381</v>
       </c>
-      <c r="C34" s="2251">
+      <c r="C34" s="2395">
         <v>20.946626384692852</v>
       </c>
-      <c r="D34" s="2252" t="s">
+      <c r="D34" s="2449" t="s">
         <v>482</v>
       </c>
-      <c r="E34" s="2252" t="s">
+      <c r="E34" s="2503" t="s">
         <v>1995</v>
       </c>
-      <c r="F34" s="2252" t="s">
+      <c r="F34" s="2557" t="s">
         <v>1995</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="2251">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2288">
         <v>8.9463220675944335</v>
       </c>
-      <c r="B35" s="2251">
+      <c r="B35" s="2342">
         <v>8.9463220675944335</v>
       </c>
-      <c r="C35" s="2251">
+      <c r="C35" s="2396">
         <v>82.107355864811126</v>
       </c>
-      <c r="D35" s="2252" t="s">
+      <c r="D35" s="2450" t="s">
         <v>488</v>
       </c>
-      <c r="E35" s="2252" t="s">
+      <c r="E35" s="2504" t="s">
         <v>1991</v>
       </c>
-      <c r="F35" s="2252" t="s">
+      <c r="F35" s="2558" t="s">
         <v>1991</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="2251">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2289">
         <v>35.175879396984925</v>
       </c>
-      <c r="B36" s="2251">
+      <c r="B36" s="2343">
         <v>28.844221105527634</v>
       </c>
-      <c r="C36" s="2251">
+      <c r="C36" s="2397">
         <v>35.97989949748743</v>
       </c>
-      <c r="D36" s="2252" t="s">
+      <c r="D36" s="2451" t="s">
         <v>490</v>
       </c>
-      <c r="E36" s="2252" t="s">
+      <c r="E36" s="2505" t="s">
         <v>1995</v>
       </c>
-      <c r="F36" s="2252" t="s">
+      <c r="F36" s="2559" t="s">
         <v>1995</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A37" s="2251">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2290">
         <v>33.696729435084237</v>
       </c>
-      <c r="B37" s="2251">
+      <c r="B37" s="2344">
         <v>49.157581764122888</v>
       </c>
-      <c r="C37" s="2251">
+      <c r="C37" s="2398">
         <v>17.145688800792865</v>
       </c>
-      <c r="D37" s="2252" t="s">
+      <c r="D37" s="2452" t="s">
         <v>492</v>
       </c>
-      <c r="E37" s="2252" t="s">
+      <c r="E37" s="2506" t="s">
         <v>1998</v>
       </c>
-      <c r="F37" s="2252" t="s">
+      <c r="F37" s="2560" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="2251">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2291">
         <v>35.984095427435392</v>
       </c>
-      <c r="B38" s="2251">
+      <c r="B38" s="2345">
         <v>28.230616302186878</v>
       </c>
-      <c r="C38" s="2251">
+      <c r="C38" s="2399">
         <v>35.785288270377734</v>
       </c>
-      <c r="D38" s="2252" t="s">
+      <c r="D38" s="2453" t="s">
         <v>496</v>
       </c>
-      <c r="E38" s="2252" t="s">
+      <c r="E38" s="2507" t="s">
         <v>1995</v>
       </c>
-      <c r="F38" s="2252" t="s">
+      <c r="F38" s="2561" t="s">
         <v>1995</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="2251">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2292">
         <v>35.671342685370746</v>
       </c>
-      <c r="B39" s="2251">
+      <c r="B39" s="2346">
         <v>51.402805611222448</v>
       </c>
-      <c r="C39" s="2251">
+      <c r="C39" s="2400">
         <v>12.925851703406815</v>
       </c>
-      <c r="D39" s="2252" t="s">
+      <c r="D39" s="2454" t="s">
         <v>520</v>
       </c>
-      <c r="E39" s="2252" t="s">
+      <c r="E39" s="2508" t="s">
         <v>1998</v>
       </c>
-      <c r="F39" s="2252" t="s">
+      <c r="F39" s="2562" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="2251">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2293">
         <v>30.382293762575458</v>
       </c>
-      <c r="B40" s="2251">
+      <c r="B40" s="2347">
         <v>57.645875251509061</v>
       </c>
-      <c r="C40" s="2251">
+      <c r="C40" s="2401">
         <v>11.971830985915496</v>
       </c>
-      <c r="D40" s="2252" t="s">
+      <c r="D40" s="2455" t="s">
         <v>530</v>
       </c>
-      <c r="E40" s="2252" t="s">
+      <c r="E40" s="2509" t="s">
         <v>1998</v>
       </c>
-      <c r="F40" s="2252" t="s">
+      <c r="F40" s="2563" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="2251">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2294">
         <v>21.756487025948104</v>
       </c>
-      <c r="B41" s="2251">
+      <c r="B41" s="2348">
         <v>11.177644710578841</v>
       </c>
-      <c r="C41" s="2251">
+      <c r="C41" s="2402">
         <v>67.06586826347305</v>
       </c>
-      <c r="D41" s="2252" t="s">
+      <c r="D41" s="2456" t="s">
         <v>540</v>
       </c>
-      <c r="E41" s="2252" t="s">
+      <c r="E41" s="2510" t="s">
         <v>1996</v>
       </c>
-      <c r="F41" s="2252" t="s">
+      <c r="F41" s="2564" t="s">
         <v>1996</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A42" s="2251">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2295">
         <v>29.713114754098363</v>
       </c>
-      <c r="B42" s="2251">
+      <c r="B42" s="2349">
         <v>58.913934426229517</v>
       </c>
-      <c r="C42" s="2251">
+      <c r="C42" s="2403">
         <v>11.372950819672132</v>
       </c>
-      <c r="D42" s="2252" t="s">
+      <c r="D42" s="2457" t="s">
         <v>544</v>
       </c>
-      <c r="E42" s="2252" t="s">
+      <c r="E42" s="2511" t="s">
         <v>1998</v>
       </c>
-      <c r="F42" s="2252" t="s">
+      <c r="F42" s="2565" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A43" s="2251">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2296">
         <v>29.63330029732408</v>
       </c>
-      <c r="B43" s="2251">
+      <c r="B43" s="2350">
         <v>55.500495540138743</v>
       </c>
-      <c r="C43" s="2251">
+      <c r="C43" s="2404">
         <v>14.866204162537164</v>
       </c>
-      <c r="D43" s="2252" t="s">
+      <c r="D43" s="2458" t="s">
         <v>550</v>
       </c>
-      <c r="E43" s="2252" t="s">
+      <c r="E43" s="2512" t="s">
         <v>1998</v>
       </c>
-      <c r="F43" s="2252" t="s">
+      <c r="F43" s="2566" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A44" s="2251">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2297">
         <v>4.7952047952047954</v>
       </c>
-      <c r="B44" s="2251">
+      <c r="B44" s="2351">
         <v>7.2927072927072931</v>
       </c>
-      <c r="C44" s="2251">
+      <c r="C44" s="2405">
         <v>87.912087912087912</v>
       </c>
-      <c r="D44" s="2252" t="s">
+      <c r="D44" s="2459" t="s">
         <v>552</v>
       </c>
-      <c r="E44" s="2252" t="s">
+      <c r="E44" s="2513" t="s">
         <v>1994</v>
       </c>
-      <c r="F44" s="2252" t="s">
+      <c r="F44" s="2567" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" s="2251">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2298">
         <v>29.789368104312938</v>
       </c>
-      <c r="B45" s="2251">
+      <c r="B45" s="2352">
         <v>55.867602808425282</v>
       </c>
-      <c r="C45" s="2251">
+      <c r="C45" s="2406">
         <v>14.343029087261787</v>
       </c>
-      <c r="D45" s="2252" t="s">
+      <c r="D45" s="2460" t="s">
         <v>556</v>
       </c>
-      <c r="E45" s="2252" t="s">
+      <c r="E45" s="2514" t="s">
         <v>1998</v>
       </c>
-      <c r="F45" s="2252" t="s">
+      <c r="F45" s="2568" t="s">
         <v>1998</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A46" s="2251">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2299">
         <v>50.704225352112672</v>
       </c>
-      <c r="B46" s="2251">
+      <c r="B46" s="2353">
         <v>31.187122736418509</v>
       </c>
-      <c r="C46" s="2251">
+      <c r="C46" s="2407">
         <v>18.108651911468812</v>
       </c>
-      <c r="D46" s="2252" t="s">
+      <c r="D46" s="2461" t="s">
         <v>560</v>
       </c>
-      <c r="E46" s="2252" t="s">
+      <c r="E46" s="2515" t="s">
         <v>1997</v>
       </c>
-      <c r="F46" s="2252" t="s">
+      <c r="F46" s="2569" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="2251">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2300">
         <v>53.137651821862349</v>
       </c>
-      <c r="B47" s="2251">
+      <c r="B47" s="2354">
         <v>30.668016194331983</v>
       </c>
-      <c r="C47" s="2251">
+      <c r="C47" s="2408">
         <v>16.194331983805668</v>
       </c>
-      <c r="D47" s="2252" t="s">
+      <c r="D47" s="2462" t="s">
         <v>576</v>
       </c>
-      <c r="E47" s="2252" t="s">
+      <c r="E47" s="2516" t="s">
         <v>1997</v>
       </c>
-      <c r="F47" s="2252" t="s">
+      <c r="F47" s="2570" t="s">
         <v>1997</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A48" s="2251">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2301">
         <v>28.109696376101862</v>
       </c>
-      <c r="B48" s="2251">
+      <c r="B48" s="2355">
         <v>43.095004897159654</v>
       </c>
-      <c r="C48" s="2251">
+      <c r="C48" s="2409">
         <v>28.795298726738494</v>
       </c>
-      <c r="D48" s="2252" t="s">
+      <c r="D48" s="2463" t="s">
         <v>582</v>
       </c>
-      <c r="E48" s="2252" t="s">
+      <c r="E48" s="2517" t="s">
         <v>1995</v>
       </c>
-      <c r="F48" s="2252" t="s">
+      <c r="F48" s="2571" t="s">
         <v>1995</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A49" s="2251">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2302">
         <v>4.9554013875123886</v>
       </c>
-      <c r="B49" s="2251">
+      <c r="B49" s="2356">
         <v>3.8652130822596629</v>
       </c>
-      <c r="C49" s="2251">
+      <c r="C49" s="2410">
         <v>91.179385530227947</v>
       </c>
-      <c r="D49" s="2252" t="s">
+      <c r="D49" s="2464" t="s">
         <v>604</v>
       </c>
-      <c r="E49" s="2252" t="s">
+      <c r="E49" s="2518" t="s">
         <v>1994</v>
       </c>
-      <c r="F49" s="2252" t="s">
+      <c r="F49" s="2572" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A50" s="2251">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2303">
         <v>29.37062937062937</v>
       </c>
-      <c r="B50" s="2251">
+      <c r="B50" s="2357">
         <v>41.658341658341662</v>
       </c>
-      <c r="C50" s="2251">
+      <c r="C50" s="2411">
         <v>28.971028971028971</v>
       </c>
-      <c r="D50" s="2252" t="s">
+      <c r="D50" s="2465" t="s">
         <v>1295</v>
       </c>
-      <c r="E50" s="2252" t="s">
+      <c r="E50" s="2519" t="s">
         <v>1995</v>
       </c>
-      <c r="F50" s="2252" t="s">
+      <c r="F50" s="2573" t="s">
         <v>1995</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A51" s="2251">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2304">
         <v>4.9900199600798398</v>
       </c>
-      <c r="B51" s="2251">
+      <c r="B51" s="2358">
         <v>2.2954091816367264</v>
       </c>
-      <c r="C51" s="2251">
+      <c r="C51" s="2412">
         <v>92.714570858283437</v>
       </c>
-      <c r="D51" s="2252" t="s">
+      <c r="D51" s="2466" t="s">
         <v>1909</v>
       </c>
-      <c r="E51" s="2252" t="s">
+      <c r="E51" s="2520" t="s">
         <v>1994</v>
       </c>
-      <c r="F51" s="2252" t="s">
+      <c r="F51" s="2574" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A52" s="2251">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2305">
         <v>3.4864030281900584</v>
       </c>
-      <c r="B52" s="2251">
+      <c r="B52" s="2359">
         <v>2.5799382408606433</v>
       </c>
-      <c r="C52" s="2251">
+      <c r="C52" s="2413">
         <v>93.93365873094929</v>
       </c>
-      <c r="D52" s="2252" t="s">
+      <c r="D52" s="2467" t="s">
         <v>1912</v>
       </c>
-      <c r="E52" s="2252" t="s">
+      <c r="E52" s="2521" t="s">
         <v>1994</v>
       </c>
-      <c r="F52" s="2252" t="s">
+      <c r="F52" s="2575" t="s">
         <v>1994</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A53" s="2251">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2306">
         <v>31.573604060913706</v>
       </c>
-      <c r="B53" s="2251">
+      <c r="B53" s="2360">
         <v>18.071065989847714</v>
       </c>
-      <c r="C53" s="2251">
+      <c r="C53" s="2414">
         <v>50.35532994923858</v>
       </c>
-      <c r="D53" s="2252" t="s">
+      <c r="D53" s="2468" t="s">
         <v>1947</v>
       </c>
-      <c r="E53" s="2252" t="s">
+      <c r="E53" s="2522" t="s">
         <v>1996</v>
       </c>
-      <c r="F53" s="2252" t="s">
+      <c r="F53" s="2576" t="s">
         <v>1996</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A54" s="2251">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2307">
         <v>31.362725450901809</v>
       </c>
-      <c r="B54" s="2251">
+      <c r="B54" s="2361">
         <v>18.537074148296597</v>
       </c>
-      <c r="C54" s="2251">
+      <c r="C54" s="2415">
         <v>50.100200400801612</v>
       </c>
-      <c r="D54" s="2252" t="s">
+      <c r="D54" s="2469" t="s">
         <v>1958</v>
       </c>
-      <c r="E54" s="2252" t="s">
+      <c r="E54" s="2523" t="s">
         <v>1996</v>
       </c>
-      <c r="F54" s="2252" t="s">
+      <c r="F54" s="2577" t="s">
         <v>1996</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" s="2251">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2308">
         <v>45.273631840796021</v>
       </c>
-      <c r="B55" s="2251">
+      <c r="B55" s="2362">
         <v>21.890547263681594</v>
       </c>
-      <c r="C55" s="2251">
+      <c r="C55" s="2416">
         <v>32.835820895522389</v>
       </c>
-      <c r="D55" s="2252" t="s">
+      <c r="D55" s="2470" t="s">
         <v>1978</v>
       </c>
-      <c r="E55" s="2252" t="s">
+      <c r="E55" s="2524" t="s">
         <v>1997</v>
       </c>
-      <c r="F55" s="2252" t="s">
+      <c r="F55" s="2578" t="s">
         <v>1997</v>
       </c>
     </row>
